--- a/Project_Window.xlsx
+++ b/Project_Window.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoham223\Documents\GitHub\M_Cross_Cutting_IOT_Renesas_2023Nov12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7558BD-8D45-4234-8FC6-12207FE7AA45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825730A8-B2EA-477B-80FC-2C78E8089E19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charter" sheetId="1" r:id="rId1"/>
     <sheet name="1.1_Receive Requirements" sheetId="4" r:id="rId2"/>
-    <sheet name="1.3_Simulator Design" sheetId="8" r:id="rId3"/>
-    <sheet name="1.4_Static Design" sheetId="9" r:id="rId4"/>
-    <sheet name="1.4_Dynamic Design " sheetId="10" r:id="rId5"/>
-    <sheet name="2.1.2_White Testing" sheetId="11" r:id="rId6"/>
-    <sheet name="3.1_Black Testing" sheetId="12" r:id="rId7"/>
+    <sheet name="1.4_Static Design" sheetId="9" r:id="rId3"/>
+    <sheet name="1.4_Dynamic Design " sheetId="10" r:id="rId4"/>
+    <sheet name="2.1.2_White Testing" sheetId="11" r:id="rId5"/>
+    <sheet name="3.1_Black Testing" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.4_Dynamic Design '!$B$10:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4_Dynamic Design '!$B$10:$F$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="344">
   <si>
     <t>Engineering Information</t>
   </si>
@@ -566,15 +565,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Simulator Kit</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
     <t>STOP</t>
   </si>
   <si>
@@ -1128,6 +1118,12 @@
   </si>
   <si>
     <t>status frame reach correctly to esp</t>
+  </si>
+  <si>
+    <t>Yasser/Magdy/Omar</t>
+  </si>
+  <si>
+    <t>esp</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1620,9 +1616,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,79 +1703,58 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,66 +1763,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1782,71 +1829,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1859,21 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1906,61 +1899,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>473743</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>69431</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9807A63-89F8-4D65-A84C-737AB8A3E147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="38100" y="1226820"/>
-          <a:ext cx="9335803" cy="6096851"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2290,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2310,20 +2248,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="24" t="s">
         <v>36</v>
       </c>
@@ -2352,30 +2290,30 @@
         <v>2023</v>
       </c>
       <c r="V1" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="B2" s="71" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="L2" s="82"/>
+      <c r="K2" s="70" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" s="70"/>
       <c r="M2" s="24">
         <v>1</v>
       </c>
@@ -2404,30 +2342,30 @@
         <v>2024</v>
       </c>
       <c r="V2" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="L3" s="80"/>
+      <c r="K3" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" s="68"/>
       <c r="M3" s="24">
         <v>2</v>
       </c>
@@ -2453,26 +2391,26 @@
         <v>2025</v>
       </c>
       <c r="V3" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="B4" s="59" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="24">
         <v>3</v>
       </c>
@@ -2498,22 +2436,22 @@
         <v>2026</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
       <c r="M5" s="24">
         <v>4</v>
       </c>
@@ -2533,7 +2471,7 @@
         <v>2027</v>
       </c>
       <c r="V5" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2541,17 +2479,17 @@
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
+      <c r="C6" s="78" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="80"/>
       <c r="L6" s="3"/>
       <c r="M6" s="24">
         <v>5</v>
@@ -2572,7 +2510,7 @@
         <v>2028</v>
       </c>
       <c r="V6" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -2624,19 +2562,19 @@
     </row>
     <row r="9" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
       <c r="L9" s="3"/>
       <c r="M9" s="24">
         <v>8</v>
@@ -2659,19 +2597,19 @@
     </row>
     <row r="10" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
       <c r="L10" s="3"/>
       <c r="M10" s="24">
         <v>9</v>
@@ -2691,34 +2629,34 @@
     </row>
     <row r="11" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="C11" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
+      <c r="C11" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="61"/>
+      <c r="E11" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:23" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="3"/>
       <c r="S12" s="24">
         <v>11</v>
@@ -2732,22 +2670,22 @@
     </row>
     <row r="13" spans="1:23" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="13">
         <v>9</v>
       </c>
-      <c r="F13" s="75" t="str">
+      <c r="F13" s="81" t="str">
         <f>VLOOKUP(E13,$M$2:$N$10,2,)</f>
         <v>actual system proven in operational environment</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="83"/>
       <c r="L13" s="3"/>
       <c r="S13" s="24">
         <v>12</v>
@@ -2761,22 +2699,22 @@
     </row>
     <row r="14" spans="1:23" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="68"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="75" t="str">
+      <c r="F14" s="81" t="str">
         <f>VLOOKUP(E14,$O$1:$P$4,2,)</f>
         <v>max 3 Yrs development time</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="83"/>
       <c r="L14" s="3"/>
       <c r="S14" s="24">
         <v>13</v>
@@ -2787,19 +2725,19 @@
     </row>
     <row r="15" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
       <c r="L15" s="3"/>
       <c r="S15" s="24">
         <v>14</v>
@@ -2814,19 +2752,19 @@
     </row>
     <row r="16" spans="1:23" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69" t="s">
+      <c r="D16" s="61"/>
+      <c r="E16" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="67"/>
       <c r="L16" s="3"/>
       <c r="S16" s="24">
         <v>15</v>
@@ -2837,10 +2775,10 @@
     </row>
     <row r="17" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="68"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
@@ -2856,10 +2794,10 @@
       <c r="I17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="78">
+      <c r="J17" s="73">
         <v>2023</v>
       </c>
-      <c r="K17" s="79"/>
+      <c r="K17" s="74"/>
       <c r="L17" s="3"/>
       <c r="S17" s="24">
         <v>16</v>
@@ -2870,29 +2808,29 @@
     </row>
     <row r="18" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="12">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="73">
         <v>2024</v>
       </c>
-      <c r="K18" s="79"/>
+      <c r="K18" s="74"/>
       <c r="L18" s="3"/>
       <c r="S18" s="24">
         <v>17</v>
@@ -2903,19 +2841,19 @@
     </row>
     <row r="19" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
       <c r="L19" s="3"/>
       <c r="S19" s="24">
         <v>18</v>
@@ -2926,19 +2864,19 @@
     </row>
     <row r="20" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="3"/>
       <c r="S20" s="24">
         <v>19</v>
@@ -2949,19 +2887,19 @@
     </row>
     <row r="21" spans="1:21" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
       <c r="L21" s="3"/>
       <c r="S21" s="24">
         <v>20</v>
@@ -2972,23 +2910,23 @@
     </row>
     <row r="22" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
       <c r="I22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="3"/>
       <c r="S22" s="24">
         <v>21</v>
@@ -3005,13 +2943,13 @@
       <c r="F23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="3"/>
       <c r="S23" s="24">
         <v>22</v>
@@ -3028,13 +2966,13 @@
       <c r="F24" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
       <c r="I24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="3"/>
       <c r="S24" s="24">
         <v>23</v>
@@ -3051,13 +2989,13 @@
       <c r="F25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="3"/>
       <c r="S25" s="24">
         <v>24</v>
@@ -3074,13 +3012,13 @@
       <c r="F26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="3"/>
       <c r="S26" s="24">
         <v>25</v>
@@ -3097,15 +3035,15 @@
       <c r="F27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="80" t="s">
-        <v>277</v>
-      </c>
-      <c r="H27" s="80"/>
+      <c r="G27" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="68"/>
       <c r="I27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="3"/>
       <c r="S27" s="24">
         <v>26</v>
@@ -3126,10 +3064,10 @@
     </row>
     <row r="29" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="68"/>
+      <c r="D29" s="61"/>
       <c r="L29" s="3"/>
       <c r="S29" s="24">
         <v>28</v>
@@ -3143,11 +3081,11 @@
       <c r="D30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="16" t="s">
         <v>78</v>
       </c>
@@ -3172,15 +3110,15 @@
       <c r="D31" s="5">
         <v>1</v>
       </c>
-      <c r="E31" s="83" t="s">
+      <c r="E31" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
       <c r="L31" s="3"/>
       <c r="S31" s="24">
         <v>30</v>
@@ -3191,11 +3129,11 @@
       <c r="D32" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E32" s="85" t="s">
+      <c r="E32" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="19">
         <v>1</v>
       </c>
@@ -3206,7 +3144,7 @@
         <v>45221</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L32" s="20">
         <v>1</v>
@@ -3220,11 +3158,11 @@
       <c r="D33" s="16">
         <v>1.2</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="19">
         <v>2</v>
       </c>
@@ -3235,7 +3173,7 @@
         <v>45223</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L33" s="20">
         <v>2</v>
@@ -3246,11 +3184,11 @@
       <c r="D34" s="16">
         <v>1.3</v>
       </c>
-      <c r="E34" s="85" t="s">
+      <c r="E34" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="19">
         <v>1</v>
       </c>
@@ -3261,7 +3199,7 @@
         <v>45224</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L34" s="20">
         <v>1</v>
@@ -3272,11 +3210,11 @@
       <c r="D35" s="16">
         <v>1.4</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
       <c r="H35" s="19">
         <v>1</v>
       </c>
@@ -3287,7 +3225,7 @@
         <v>45225</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L35" s="20">
         <v>1</v>
@@ -3298,15 +3236,15 @@
       <c r="D36" s="5">
         <v>2</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3314,15 +3252,15 @@
       <c r="D37" s="16">
         <v>2.1</v>
       </c>
-      <c r="E37" s="85" t="s">
+      <c r="E37" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,11 +3268,11 @@
       <c r="D38" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="86" t="s">
+      <c r="E38" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="19">
         <v>14</v>
       </c>
@@ -3345,7 +3283,7 @@
         <v>45246</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L38" s="20">
         <v>14</v>
@@ -3356,11 +3294,11 @@
       <c r="D39" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
       <c r="H39" s="19">
         <v>6</v>
       </c>
@@ -3371,7 +3309,7 @@
         <v>45253</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L39" s="20">
         <v>6</v>
@@ -3382,15 +3320,15 @@
       <c r="D40" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E40" s="85" t="s">
+      <c r="E40" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3398,11 +3336,11 @@
       <c r="D41" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="19">
         <v>14</v>
       </c>
@@ -3413,7 +3351,7 @@
         <v>45246</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L41" s="20">
         <v>21</v>
@@ -3424,11 +3362,11 @@
       <c r="D42" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
       <c r="H42" s="19">
         <v>6</v>
       </c>
@@ -3439,7 +3377,7 @@
         <v>45253</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L42" s="20">
         <v>6</v>
@@ -3450,15 +3388,15 @@
       <c r="D43" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E43" s="85" t="s">
+      <c r="E43" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3466,11 +3404,11 @@
       <c r="D44" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
       <c r="H44" s="19">
         <v>3</v>
       </c>
@@ -3481,7 +3419,7 @@
         <v>45245</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L44" s="20">
         <v>3</v>
@@ -3492,11 +3430,11 @@
       <c r="D45" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
       <c r="H45" s="19">
         <v>1</v>
       </c>
@@ -3507,7 +3445,7 @@
         <v>45246</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L45" s="20">
         <v>1</v>
@@ -3518,15 +3456,15 @@
       <c r="D46" s="5">
         <v>3</v>
       </c>
-      <c r="E46" s="83" t="s">
+      <c r="E46" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3534,11 +3472,11 @@
       <c r="D47" s="16">
         <v>3.1</v>
       </c>
-      <c r="E47" s="85" t="s">
+      <c r="E47" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="19">
         <v>3</v>
       </c>
@@ -3549,7 +3487,7 @@
         <v>45252</v>
       </c>
       <c r="K47" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L47" s="20">
         <v>3</v>
@@ -3560,11 +3498,11 @@
       <c r="D48" s="16">
         <v>3.2</v>
       </c>
-      <c r="E48" s="85" t="s">
+      <c r="E48" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="19">
         <v>1</v>
       </c>
@@ -3575,7 +3513,7 @@
         <v>45253</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L48" s="20">
         <v>1</v>
@@ -3647,7 +3585,7 @@
     <row r="59" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L59" s="3"/>
     </row>
@@ -3656,101 +3594,101 @@
       <c r="C60" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="58"/>
-      <c r="K60" s="58"/>
+      <c r="D60" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="C61" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
+        <v>212</v>
+      </c>
+      <c r="D61" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="C62" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
+        <v>211</v>
+      </c>
+      <c r="D62" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="C63" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="58"/>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58"/>
+        <v>213</v>
+      </c>
+      <c r="D63" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="C64" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D64" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
-      <c r="I64" s="58"/>
-      <c r="J64" s="58"/>
-      <c r="K64" s="58"/>
+        <v>214</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="72"/>
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="C65" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>224</v>
-      </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
+        <v>215</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="72"/>
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -3778,24 +3716,85 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="61"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="86"/>
     </row>
     <row r="73" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="D62:K62"/>
+    <mergeCell ref="D63:K63"/>
+    <mergeCell ref="D64:K64"/>
+    <mergeCell ref="D65:K65"/>
+    <mergeCell ref="A72:L72"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="D60:K60"/>
+    <mergeCell ref="D61:K61"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:K19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="E20:K20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="E31:K31"/>
     <mergeCell ref="E36:K36"/>
@@ -3812,67 +3811,6 @@
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E20:K20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="D60:K60"/>
-    <mergeCell ref="D61:K61"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:K19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="D62:K62"/>
-    <mergeCell ref="D63:K63"/>
-    <mergeCell ref="D64:K64"/>
-    <mergeCell ref="D65:K65"/>
-    <mergeCell ref="A72:L72"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="8">
@@ -3918,8 +3856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B5324A-C9A2-4DFF-88B9-FC2AAFE1F058}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E32"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3936,106 +3874,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="87" t="str">
+      <c r="K2" s="105" t="str">
         <f>Charter!K2</f>
         <v>30/11/2023</v>
       </c>
-      <c r="L2" s="87"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="88" t="str">
+      <c r="K3" s="106" t="str">
         <f>Charter!$K$3</f>
         <v>Ahmed Yasser</v>
       </c>
-      <c r="L3" s="88"/>
+      <c r="L3" s="106"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="59" t="str">
         <f>_xlfn.CONCAT(Charter!$E$10," Receive Requirements")</f>
         <v>IOT Receive Requirements</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="99"/>
       <c r="G6" s="25" t="s">
         <v>111</v>
       </c>
@@ -4063,7 +4001,7 @@
       <c r="K8" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="93"/>
+      <c r="L8" s="107"/>
     </row>
     <row r="9" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -4072,20 +4010,22 @@
     <row r="10" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="97" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C10" s="98"/>
       <c r="E10" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="I10" s="27"/>
-      <c r="K10" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="L10" s="91"/>
+        <v>290</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="L10" s="96"/>
     </row>
     <row r="11" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -4095,21 +4035,21 @@
     </row>
     <row r="12" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="E12" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="E12" s="19" t="s">
-        <v>287</v>
-      </c>
       <c r="G12" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="I12" s="21"/>
-      <c r="K12" s="90" t="s">
-        <v>282</v>
-      </c>
-      <c r="L12" s="91"/>
+      <c r="K12" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="L12" s="96"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -4119,19 +4059,19 @@
     </row>
     <row r="14" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="95" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="E14" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="E14" s="19" t="s">
-        <v>288</v>
-      </c>
       <c r="G14" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="96"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -4141,17 +4081,17 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="E16" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="E16" s="19" t="s">
-        <v>289</v>
       </c>
       <c r="G16" s="21"/>
       <c r="I16" s="21"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="96"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
@@ -4161,17 +4101,17 @@
     </row>
     <row r="18" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
       <c r="E18" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>114</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="96"/>
     </row>
     <row r="19" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -4181,17 +4121,17 @@
     </row>
     <row r="20" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
       <c r="E20" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I20" s="21"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -4201,17 +4141,17 @@
     </row>
     <row r="22" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
       <c r="E22" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I22" s="21"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -4221,13 +4161,13 @@
     </row>
     <row r="24" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="E24" s="19"/>
       <c r="G24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="96"/>
     </row>
     <row r="25" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
@@ -4237,13 +4177,13 @@
     </row>
     <row r="26" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
       <c r="E26" s="19"/>
       <c r="G26" s="21"/>
       <c r="I26" s="21"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="96"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
@@ -4253,15 +4193,15 @@
     </row>
     <row r="28" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="E28" s="19"/>
       <c r="G28" s="28" t="s">
         <v>112</v>
       </c>
       <c r="I28" s="21"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="96"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -4271,7 +4211,7 @@
     <row r="30" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="G30" s="21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="L30" s="3"/>
     </row>
@@ -4285,14 +4225,14 @@
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="105" t="s">
+      <c r="B32" s="87" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
       <c r="G32" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L32" s="3"/>
     </row>
@@ -4322,10 +4262,10 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="96"/>
+      <c r="C38" s="99"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4334,8 +4274,8 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
-      <c r="C40" s="99"/>
-      <c r="D40" s="100"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="94"/>
       <c r="E40" s="1">
         <v>1</v>
       </c>
@@ -4349,14 +4289,14 @@
         <f t="shared" ref="H40:H53" si="0">H41+1</f>
         <v>32</v>
       </c>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="C41" s="101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D41" s="102"/>
       <c r="E41" s="1">
@@ -4372,18 +4312,18 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="I41" s="94" t="s">
-        <v>274</v>
-      </c>
-      <c r="J41" s="95"/>
+      <c r="I41" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" s="91"/>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
-      <c r="C42" s="99" t="s">
-        <v>301</v>
-      </c>
-      <c r="D42" s="100"/>
+      <c r="C42" s="93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="94"/>
       <c r="E42" s="1">
         <v>3</v>
       </c>
@@ -4397,16 +4337,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="I42" s="94" t="s">
-        <v>273</v>
-      </c>
-      <c r="J42" s="95"/>
+      <c r="I42" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="J42" s="91"/>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="100"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="1">
         <v>4</v>
       </c>
@@ -4420,18 +4360,18 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="I43" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="J43" s="95"/>
+      <c r="I43" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" s="91"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
-      <c r="C44" s="99" t="s">
-        <v>300</v>
-      </c>
-      <c r="D44" s="100"/>
+      <c r="C44" s="93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" s="94"/>
       <c r="E44" s="1">
         <v>5</v>
       </c>
@@ -4445,14 +4385,14 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="91"/>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="C45" s="101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D45" s="102"/>
       <c r="E45" s="1">
@@ -4468,8 +4408,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="I45" s="94"/>
-      <c r="J45" s="95"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="91"/>
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4491,8 +4431,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="I46" s="94"/>
-      <c r="J46" s="95"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="91"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4514,14 +4454,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="I47" s="94"/>
-      <c r="J47" s="95"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="91"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
-      <c r="C48" s="99"/>
-      <c r="D48" s="100"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="94"/>
       <c r="E48" s="1">
         <v>9</v>
       </c>
@@ -4535,14 +4475,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="95"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="91"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="100"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="94"/>
       <c r="E49" s="1">
         <v>10</v>
       </c>
@@ -4556,16 +4496,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="91"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
-      <c r="C50" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="D50" s="100"/>
+      <c r="C50" s="93" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50" s="94"/>
       <c r="E50" s="1">
         <v>11</v>
       </c>
@@ -4579,16 +4519,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I50" s="94"/>
-      <c r="J50" s="95"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="91"/>
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="C51" s="99" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51" s="100"/>
+      <c r="C51" s="93" t="s">
+        <v>302</v>
+      </c>
+      <c r="D51" s="94"/>
       <c r="E51" s="1">
         <v>12</v>
       </c>
@@ -4602,16 +4542,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="I51" s="94"/>
-      <c r="J51" s="95"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="C52" s="99" t="s">
-        <v>306</v>
-      </c>
-      <c r="D52" s="100"/>
+      <c r="C52" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D52" s="94"/>
       <c r="E52" s="1">
         <v>13</v>
       </c>
@@ -4625,18 +4565,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="I52" s="94" t="s">
-        <v>308</v>
-      </c>
-      <c r="J52" s="95"/>
+      <c r="I52" s="90" t="s">
+        <v>305</v>
+      </c>
+      <c r="J52" s="91"/>
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="C53" s="99" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" s="100"/>
+      <c r="C53" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="D53" s="94"/>
       <c r="E53" s="1">
         <v>14</v>
       </c>
@@ -4650,18 +4590,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="I53" s="94" t="s">
-        <v>303</v>
-      </c>
-      <c r="J53" s="95"/>
+      <c r="I53" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="J53" s="91"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="C54" s="99" t="s">
-        <v>304</v>
-      </c>
-      <c r="D54" s="100"/>
+      <c r="C54" s="93" t="s">
+        <v>301</v>
+      </c>
+      <c r="D54" s="94"/>
       <c r="E54" s="1">
         <v>15</v>
       </c>
@@ -4675,18 +4615,18 @@
         <f>H55+1</f>
         <v>18</v>
       </c>
-      <c r="I54" s="94" t="s">
-        <v>311</v>
-      </c>
-      <c r="J54" s="95"/>
+      <c r="I54" s="90" t="s">
+        <v>308</v>
+      </c>
+      <c r="J54" s="91"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
-      <c r="C55" s="99" t="s">
-        <v>310</v>
-      </c>
-      <c r="D55" s="100"/>
+      <c r="C55" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="94"/>
       <c r="E55" s="1">
         <v>16</v>
       </c>
@@ -4699,25 +4639,25 @@
       <c r="H55" s="6">
         <v>17</v>
       </c>
-      <c r="I55" s="94" t="s">
-        <v>312</v>
-      </c>
-      <c r="J55" s="95"/>
+      <c r="I55" s="90" t="s">
+        <v>309</v>
+      </c>
+      <c r="J55" s="91"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
-      <c r="F56" s="89" t="s">
+      <c r="F56" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="89"/>
+      <c r="G56" s="100"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="D57" s="89"/>
+      <c r="D57" s="100"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="92"/>
@@ -4726,12 +4666,48 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B28:C28"/>
@@ -4748,51 +4724,15 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4804,451 +4744,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D938AF-CA59-4ABC-8416-795E665BAF6E}">
-  <dimension ref="A1:L78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="12.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="87" t="str">
-        <f>Charter!K2</f>
-        <v>30/11/2023</v>
-      </c>
-      <c r="L2" s="87"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="88" t="str">
-        <f>Charter!$K$3</f>
-        <v>Ahmed Yasser</v>
-      </c>
-      <c r="L3" s="88"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="83" t="str">
-        <f>_xlfn.CONCAT(Charter!$E$10," Simulator Design")</f>
-        <v>IOT Simulator Design</v>
-      </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="112"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2"/>
-      <c r="J73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="61"/>
-    </row>
-    <row r="78" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A77:L77"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:L4"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A18F77F-E1C9-4475-8D68-265F2540AEFC}">
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5278,184 +4777,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
     </row>
     <row r="2" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="87" t="str">
+      <c r="M2" s="105" t="str">
         <f>Charter!K2</f>
         <v>30/11/2023</v>
       </c>
-      <c r="N2" s="87"/>
+      <c r="N2" s="105"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="88" t="str">
+      <c r="M3" s="106" t="str">
         <f>Charter!$K$3</f>
         <v>Ahmed Yasser</v>
       </c>
-      <c r="N3" s="88"/>
+      <c r="N3" s="106"/>
       <c r="X3" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="59" t="str">
         <f>_xlfn.CONCAT(Charter!$E$10," Static Design")</f>
         <v>IOT Static Design</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
       <c r="Q4" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="U4" s="8" t="s">
         <v>114</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="77"/>
       <c r="Q5" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U5" s="35"/>
       <c r="X5" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:24" s="8" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G6" s="52" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I6" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K6" s="1"/>
       <c r="M6" s="92"/>
-      <c r="N6" s="93"/>
-      <c r="R6" s="88" t="s">
-        <v>162</v>
+      <c r="N6" s="107"/>
+      <c r="R6" s="106" t="s">
+        <v>159</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="U6" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="U6" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>182</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="X6" s="6" t="s">
         <v>80</v>
@@ -5463,11 +4962,11 @@
     </row>
     <row r="7" spans="1:24" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="109" t="s">
         <v>110</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D7" s="16" t="str">
         <f>IF(C7&gt;0,_xlfn.CONCAT(C7,"_Update"),_xlfn.CONCAT(C7))</f>
@@ -5477,40 +4976,40 @@
         <f>IF(C7&gt;0,_xlfn.CONCAT(C7,"_Init"),_xlfn.CONCAT(C7))</f>
         <v>switch_Init</v>
       </c>
-      <c r="G7" s="113" t="s">
+      <c r="G7" s="109" t="s">
         <v>112</v>
       </c>
       <c r="H7" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>317</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="R7" s="88"/>
+      <c r="R7" s="106"/>
       <c r="S7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="T7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="U7" s="80"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="33" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="114"/>
+      <c r="B8" s="110"/>
       <c r="C8" s="21"/>
       <c r="D8" s="16" t="str">
         <f t="shared" ref="D8:D15" si="0">IF(C8&gt;0,_xlfn.CONCAT(C8,"_Update"),_xlfn.CONCAT(C8))</f>
@@ -5520,9 +5019,9 @@
         <f t="shared" ref="E8:E15" si="1">IF(C8&gt;0,_xlfn.CONCAT(C8,"_Init"),_xlfn.CONCAT(C8))</f>
         <v/>
       </c>
-      <c r="G8" s="114"/>
+      <c r="G8" s="110"/>
       <c r="H8" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I8" s="16" t="str">
         <f t="shared" ref="I8:I15" si="2">IF(H8&gt;0,_xlfn.CONCAT(H8,"_Update"),_xlfn.CONCAT(H8))</f>
@@ -5533,27 +5032,27 @@
         <v>ssd_Init</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N8" s="3"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="80" t="s">
-        <v>178</v>
+      <c r="R8" s="106"/>
+      <c r="S8" s="68" t="s">
+        <v>175</v>
       </c>
       <c r="T8" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="80"/>
+        <v>176</v>
+      </c>
+      <c r="U8" s="68"/>
       <c r="V8" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="114"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="21"/>
       <c r="D9" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5563,7 +5062,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="114"/>
+      <c r="G9" s="110"/>
       <c r="H9" s="21"/>
       <c r="I9" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5574,20 +5073,20 @@
         <v/>
       </c>
       <c r="M9" s="34" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N9" s="3"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="80"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="68"/>
       <c r="T9" s="108"/>
-      <c r="U9" s="80"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="114"/>
+      <c r="B10" s="110"/>
       <c r="C10" s="19"/>
       <c r="D10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5597,7 +5096,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="114"/>
+      <c r="G10" s="110"/>
       <c r="H10" s="19"/>
       <c r="I10" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5608,16 +5107,16 @@
         <v/>
       </c>
       <c r="M10" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3"/>
       <c r="Q10" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="114"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="19"/>
       <c r="D11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5627,7 +5126,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="19"/>
       <c r="I11" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5638,25 +5137,25 @@
         <v/>
       </c>
       <c r="M11" s="34" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N11" s="3"/>
       <c r="R11" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="114"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="19"/>
       <c r="D12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5666,7 +5165,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="110"/>
       <c r="H12" s="19"/>
       <c r="I12" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5678,7 +5177,7 @@
       </c>
       <c r="N12" s="3"/>
       <c r="R12" s="16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
@@ -5686,7 +5185,7 @@
     </row>
     <row r="13" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="114"/>
+      <c r="B13" s="110"/>
       <c r="C13" s="19"/>
       <c r="D13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5696,7 +5195,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="114"/>
+      <c r="G13" s="110"/>
       <c r="H13" s="19"/>
       <c r="I13" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5711,13 +5210,13 @@
       </c>
       <c r="N13" s="3"/>
       <c r="Q13" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="114"/>
+      <c r="B14" s="110"/>
       <c r="C14" s="19"/>
       <c r="D14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5727,7 +5226,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="110"/>
       <c r="H14" s="19"/>
       <c r="I14" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5742,21 +5241,21 @@
       </c>
       <c r="N14" s="3"/>
       <c r="Q14" s="8"/>
-      <c r="R14" s="80" t="s">
-        <v>167</v>
+      <c r="R14" s="68" t="s">
+        <v>164</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="T14" s="80" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>188</v>
       </c>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:24" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="115"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="19"/>
       <c r="D15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -5766,7 +5265,7 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G15" s="115"/>
+      <c r="G15" s="111"/>
       <c r="H15" s="19"/>
       <c r="I15" s="16" t="str">
         <f t="shared" si="2"/>
@@ -5778,11 +5277,11 @@
       </c>
       <c r="N15" s="3"/>
       <c r="Q15" s="8"/>
-      <c r="R15" s="80"/>
+      <c r="R15" s="68"/>
       <c r="S15" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T15" s="80"/>
+        <v>190</v>
+      </c>
+      <c r="T15" s="68"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
     </row>
@@ -5791,16 +5290,16 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="M16" s="34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N16" s="3"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="80"/>
+      <c r="R16" s="68"/>
       <c r="S16" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -5810,16 +5309,16 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="M17" s="34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N17" s="3"/>
       <c r="Q17" s="8"/>
-      <c r="R17" s="80"/>
+      <c r="R17" s="68"/>
       <c r="S17" s="21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="T17" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -5830,44 +5329,44 @@
         <v>114</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D18" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="G18" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>263</v>
-      </c>
       <c r="H18" s="52" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I18" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N18" s="3"/>
-      <c r="R18" s="80"/>
+      <c r="R18" s="68"/>
       <c r="S18" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="T18" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="1:22" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="113" t="s">
-        <v>262</v>
+      <c r="B19" s="109" t="s">
+        <v>259</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D19" s="16" t="str">
         <f>IF(C19&gt;0,_xlfn.CONCAT(C19,"_Update"),_xlfn.CONCAT(C19))</f>
@@ -5877,11 +5376,11 @@
         <f>IF(C19&gt;0,_xlfn.CONCAT(C19,"_Init"),_xlfn.CONCAT(C19))</f>
         <v>iot_Init</v>
       </c>
-      <c r="G19" s="113" t="s">
-        <v>263</v>
+      <c r="G19" s="109" t="s">
+        <v>260</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I19" s="16" t="str">
         <f>IF(H19&gt;0,_xlfn.CONCAT(H19,"_Update"),_xlfn.CONCAT(H19))</f>
@@ -5893,13 +5392,13 @@
       </c>
       <c r="N19" s="3"/>
       <c r="R19" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="114"/>
+      <c r="B20" s="110"/>
       <c r="C20" s="21"/>
       <c r="D20" s="16" t="str">
         <f>IF(C20&gt;0,_xlfn.CONCAT(C20,"_Update"),_xlfn.CONCAT(C20))</f>
@@ -5909,9 +5408,9 @@
         <f>IF(C20&gt;0,_xlfn.CONCAT(C20,"_Init"),_xlfn.CONCAT(C20))</f>
         <v/>
       </c>
-      <c r="G20" s="114"/>
+      <c r="G20" s="110"/>
       <c r="H20" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I20" s="16" t="str">
         <f>IF(H20&gt;0,_xlfn.CONCAT(H20,"_Update"),_xlfn.CONCAT(H20))</f>
@@ -5923,13 +5422,13 @@
       </c>
       <c r="N20" s="3"/>
       <c r="R20" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="114"/>
+      <c r="B21" s="110"/>
       <c r="C21" s="21"/>
       <c r="D21" s="16" t="str">
         <f t="shared" ref="D21:D27" si="4">IF(C21&gt;0,_xlfn.CONCAT(C21,"_Update"),_xlfn.CONCAT(C21))</f>
@@ -5939,9 +5438,9 @@
         <f t="shared" ref="E21:E27" si="5">IF(C21&gt;0,_xlfn.CONCAT(C21,"_Init"),_xlfn.CONCAT(C21))</f>
         <v/>
       </c>
-      <c r="G21" s="114"/>
+      <c r="G21" s="110"/>
       <c r="H21" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I21" s="16" t="str">
         <f t="shared" ref="I21:I27" si="6">IF(H21&gt;0,_xlfn.CONCAT(H21,"_Update"),_xlfn.CONCAT(H21))</f>
@@ -5953,13 +5452,13 @@
       </c>
       <c r="N21" s="3"/>
       <c r="R21" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="114"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="19"/>
       <c r="D22" s="16" t="str">
         <f t="shared" si="4"/>
@@ -5969,9 +5468,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G22" s="114"/>
+      <c r="G22" s="110"/>
       <c r="H22" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I22" s="16" t="str">
         <f t="shared" si="6"/>
@@ -5983,13 +5482,13 @@
       </c>
       <c r="N22" s="3"/>
       <c r="R22" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="114"/>
+      <c r="B23" s="110"/>
       <c r="C23" s="19"/>
       <c r="D23" s="16" t="str">
         <f t="shared" si="4"/>
@@ -5999,9 +5498,9 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G23" s="114"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I23" s="16" t="str">
         <f t="shared" si="6"/>
@@ -6013,13 +5512,13 @@
       </c>
       <c r="N23" s="3"/>
       <c r="R23" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="114"/>
+      <c r="B24" s="110"/>
       <c r="C24" s="19"/>
       <c r="D24" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6029,7 +5528,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G24" s="114"/>
+      <c r="G24" s="110"/>
       <c r="H24" s="19"/>
       <c r="I24" s="16" t="str">
         <f t="shared" si="6"/>
@@ -6041,12 +5540,12 @@
       </c>
       <c r="N24" s="3"/>
       <c r="Q24" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="114"/>
+      <c r="B25" s="110"/>
       <c r="C25" s="19"/>
       <c r="D25" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6056,7 +5555,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G25" s="114"/>
+      <c r="G25" s="110"/>
       <c r="H25" s="19"/>
       <c r="I25" s="16" t="str">
         <f t="shared" si="6"/>
@@ -6068,12 +5567,12 @@
       </c>
       <c r="N25" s="3"/>
       <c r="Q25" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="114"/>
+      <c r="B26" s="110"/>
       <c r="C26" s="19"/>
       <c r="D26" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6083,7 +5582,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G26" s="114"/>
+      <c r="G26" s="110"/>
       <c r="H26" s="19"/>
       <c r="I26" s="16" t="str">
         <f t="shared" si="6"/>
@@ -6097,7 +5596,7 @@
     </row>
     <row r="27" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="115"/>
+      <c r="B27" s="111"/>
       <c r="C27" s="19"/>
       <c r="D27" s="16" t="str">
         <f t="shared" si="4"/>
@@ -6107,7 +5606,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G27" s="115"/>
+      <c r="G27" s="111"/>
       <c r="H27" s="19"/>
       <c r="I27" s="16" t="str">
         <f t="shared" si="6"/>
@@ -6212,32 +5711,26 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="61"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
+      <c r="M51" s="85"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R14:R18"/>
-    <mergeCell ref="T14:T15"/>
-    <mergeCell ref="U6:U9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="A51:N51"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="A1:N1"/>
@@ -6251,6 +5744,12 @@
     <mergeCell ref="G19:G27"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="A5:N5"/>
+    <mergeCell ref="R14:R18"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -6258,11 +5757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C312F55-2C0F-4E37-BE66-6FD32CCAD304}">
   <dimension ref="A1:DD55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6279,121 +5778,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="132" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
     </row>
     <row r="2" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="81" t="s">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="87" t="str">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="105" t="str">
         <f>Charter!$K$2</f>
         <v>30/11/2023</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
     </row>
     <row r="3" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="81" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="88" t="str">
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="106" t="str">
         <f>Charter!$K$3</f>
         <v>Ahmed Yasser</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
     </row>
     <row r="4" spans="1:21" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="131" t="str">
+      <c r="B4" s="118" t="str">
         <f>_xlfn.CONCAT(Charter!$E$10," Dynamic Design")</f>
         <v>IOT Dynamic Design</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="133"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="120"/>
     </row>
     <row r="5" spans="1:21" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="92"/>
@@ -6434,40 +5933,40 @@
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="130" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
-      <c r="N7" s="130"/>
+      <c r="C7" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="130"/>
-      <c r="M8" s="130"/>
-      <c r="N8" s="130"/>
+      <c r="C8" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
     </row>
     <row r="9" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
@@ -6493,13 +5992,13 @@
         <v>77</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
@@ -6515,7 +6014,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="33">
@@ -6532,7 +6031,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33">
@@ -6549,7 +6048,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33">
@@ -6566,7 +6065,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33">
@@ -6583,7 +6082,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33">
@@ -6818,107 +6317,107 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="118"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="124"/>
-      <c r="N36" s="118"/>
-      <c r="O36" s="118"/>
-      <c r="P36" s="118"/>
-      <c r="Q36" s="118"/>
-      <c r="R36" s="124"/>
-      <c r="S36" s="127"/>
-      <c r="T36" s="118"/>
-      <c r="U36" s="118"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="118"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="118"/>
-      <c r="AA36" s="118"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="127"/>
-      <c r="AD36" s="118"/>
-      <c r="AE36" s="118"/>
-      <c r="AF36" s="118"/>
-      <c r="AG36" s="109"/>
-      <c r="AH36" s="109"/>
-      <c r="AI36" s="109"/>
-      <c r="AJ36" s="109"/>
-      <c r="AK36" s="109"/>
-      <c r="AL36" s="109"/>
-      <c r="AM36" s="109"/>
-      <c r="AN36" s="109"/>
-      <c r="AO36" s="109"/>
-      <c r="AP36" s="109"/>
-      <c r="AQ36" s="109"/>
-      <c r="AR36" s="109"/>
-      <c r="AS36" s="109"/>
-      <c r="AT36" s="109"/>
-      <c r="AU36" s="109"/>
-      <c r="AV36" s="109"/>
-      <c r="AW36" s="109"/>
-      <c r="AX36" s="109"/>
-      <c r="AY36" s="109"/>
-      <c r="AZ36" s="109"/>
-      <c r="BA36" s="109"/>
-      <c r="BB36" s="109"/>
-      <c r="BC36" s="109"/>
-      <c r="BD36" s="109"/>
-      <c r="BE36" s="109"/>
-      <c r="BF36" s="109"/>
-      <c r="BG36" s="109"/>
-      <c r="BH36" s="109"/>
-      <c r="BI36" s="109"/>
-      <c r="BJ36" s="109"/>
-      <c r="BK36" s="109"/>
-      <c r="BL36" s="109"/>
-      <c r="BM36" s="109"/>
-      <c r="BN36" s="109"/>
-      <c r="BO36" s="109"/>
-      <c r="BP36" s="109"/>
-      <c r="BQ36" s="109"/>
-      <c r="BR36" s="109"/>
-      <c r="BS36" s="109"/>
-      <c r="BT36" s="109"/>
-      <c r="BU36" s="109"/>
-      <c r="BV36" s="109"/>
-      <c r="BW36" s="109"/>
-      <c r="BX36" s="109"/>
-      <c r="BY36" s="109"/>
-      <c r="BZ36" s="109"/>
-      <c r="CA36" s="109"/>
-      <c r="CB36" s="109"/>
-      <c r="CC36" s="109"/>
-      <c r="CD36" s="109"/>
-      <c r="CE36" s="109"/>
-      <c r="CF36" s="109"/>
-      <c r="CG36" s="109"/>
-      <c r="CH36" s="109"/>
-      <c r="CI36" s="109"/>
-      <c r="CJ36" s="109"/>
-      <c r="CK36" s="109"/>
-      <c r="CL36" s="109"/>
-      <c r="CM36" s="109"/>
-      <c r="CN36" s="109"/>
-      <c r="CO36" s="109"/>
-      <c r="CP36" s="109"/>
-      <c r="CQ36" s="109"/>
-      <c r="CR36" s="109"/>
-      <c r="CS36" s="109"/>
-      <c r="CT36" s="109"/>
-      <c r="CU36" s="109"/>
-      <c r="CV36" s="109"/>
-      <c r="CW36" s="109"/>
-      <c r="CX36" s="109"/>
-      <c r="CY36" s="109"/>
-      <c r="CZ36" s="109"/>
-      <c r="DA36" s="109"/>
-      <c r="DB36" s="109"/>
-      <c r="DC36" s="109"/>
-      <c r="DD36" s="109"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
+      <c r="K36" s="112"/>
+      <c r="L36" s="112"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="112"/>
+      <c r="O36" s="112"/>
+      <c r="P36" s="112"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="112"/>
+      <c r="U36" s="112"/>
+      <c r="V36" s="112"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="129"/>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="112"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="121"/>
+      <c r="AD36" s="112"/>
+      <c r="AE36" s="112"/>
+      <c r="AF36" s="112"/>
+      <c r="AG36" s="126"/>
+      <c r="AH36" s="126"/>
+      <c r="AI36" s="126"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="126"/>
+      <c r="AL36" s="126"/>
+      <c r="AM36" s="126"/>
+      <c r="AN36" s="126"/>
+      <c r="AO36" s="126"/>
+      <c r="AP36" s="126"/>
+      <c r="AQ36" s="126"/>
+      <c r="AR36" s="126"/>
+      <c r="AS36" s="126"/>
+      <c r="AT36" s="126"/>
+      <c r="AU36" s="126"/>
+      <c r="AV36" s="126"/>
+      <c r="AW36" s="126"/>
+      <c r="AX36" s="126"/>
+      <c r="AY36" s="126"/>
+      <c r="AZ36" s="126"/>
+      <c r="BA36" s="126"/>
+      <c r="BB36" s="126"/>
+      <c r="BC36" s="126"/>
+      <c r="BD36" s="126"/>
+      <c r="BE36" s="126"/>
+      <c r="BF36" s="126"/>
+      <c r="BG36" s="126"/>
+      <c r="BH36" s="126"/>
+      <c r="BI36" s="126"/>
+      <c r="BJ36" s="126"/>
+      <c r="BK36" s="126"/>
+      <c r="BL36" s="126"/>
+      <c r="BM36" s="126"/>
+      <c r="BN36" s="126"/>
+      <c r="BO36" s="126"/>
+      <c r="BP36" s="126"/>
+      <c r="BQ36" s="126"/>
+      <c r="BR36" s="126"/>
+      <c r="BS36" s="126"/>
+      <c r="BT36" s="126"/>
+      <c r="BU36" s="126"/>
+      <c r="BV36" s="126"/>
+      <c r="BW36" s="126"/>
+      <c r="BX36" s="126"/>
+      <c r="BY36" s="126"/>
+      <c r="BZ36" s="126"/>
+      <c r="CA36" s="126"/>
+      <c r="CB36" s="126"/>
+      <c r="CC36" s="126"/>
+      <c r="CD36" s="126"/>
+      <c r="CE36" s="126"/>
+      <c r="CF36" s="126"/>
+      <c r="CG36" s="126"/>
+      <c r="CH36" s="126"/>
+      <c r="CI36" s="126"/>
+      <c r="CJ36" s="126"/>
+      <c r="CK36" s="126"/>
+      <c r="CL36" s="126"/>
+      <c r="CM36" s="126"/>
+      <c r="CN36" s="126"/>
+      <c r="CO36" s="126"/>
+      <c r="CP36" s="126"/>
+      <c r="CQ36" s="126"/>
+      <c r="CR36" s="126"/>
+      <c r="CS36" s="126"/>
+      <c r="CT36" s="126"/>
+      <c r="CU36" s="126"/>
+      <c r="CV36" s="126"/>
+      <c r="CW36" s="126"/>
+      <c r="CX36" s="126"/>
+      <c r="CY36" s="126"/>
+      <c r="CZ36" s="126"/>
+      <c r="DA36" s="126"/>
+      <c r="DB36" s="126"/>
+      <c r="DC36" s="126"/>
+      <c r="DD36" s="126"/>
     </row>
     <row r="37" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
@@ -6928,107 +6427,107 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="119"/>
-      <c r="P37" s="119"/>
-      <c r="Q37" s="119"/>
-      <c r="R37" s="125"/>
-      <c r="S37" s="128"/>
-      <c r="T37" s="119"/>
-      <c r="U37" s="119"/>
-      <c r="V37" s="119"/>
-      <c r="W37" s="125"/>
-      <c r="X37" s="119"/>
-      <c r="Y37" s="122"/>
-      <c r="Z37" s="119"/>
-      <c r="AA37" s="119"/>
-      <c r="AB37" s="125"/>
-      <c r="AC37" s="128"/>
-      <c r="AD37" s="119"/>
-      <c r="AE37" s="119"/>
-      <c r="AF37" s="119"/>
-      <c r="AG37" s="110"/>
-      <c r="AH37" s="110"/>
-      <c r="AI37" s="110"/>
-      <c r="AJ37" s="110"/>
-      <c r="AK37" s="110"/>
-      <c r="AL37" s="110"/>
-      <c r="AM37" s="110"/>
-      <c r="AN37" s="110"/>
-      <c r="AO37" s="110"/>
-      <c r="AP37" s="110"/>
-      <c r="AQ37" s="110"/>
-      <c r="AR37" s="110"/>
-      <c r="AS37" s="110"/>
-      <c r="AT37" s="110"/>
-      <c r="AU37" s="110"/>
-      <c r="AV37" s="110"/>
-      <c r="AW37" s="110"/>
-      <c r="AX37" s="110"/>
-      <c r="AY37" s="110"/>
-      <c r="AZ37" s="110"/>
-      <c r="BA37" s="110"/>
-      <c r="BB37" s="110"/>
-      <c r="BC37" s="110"/>
-      <c r="BD37" s="110"/>
-      <c r="BE37" s="110"/>
-      <c r="BF37" s="110"/>
-      <c r="BG37" s="110"/>
-      <c r="BH37" s="110"/>
-      <c r="BI37" s="110"/>
-      <c r="BJ37" s="110"/>
-      <c r="BK37" s="110"/>
-      <c r="BL37" s="110"/>
-      <c r="BM37" s="110"/>
-      <c r="BN37" s="110"/>
-      <c r="BO37" s="110"/>
-      <c r="BP37" s="110"/>
-      <c r="BQ37" s="110"/>
-      <c r="BR37" s="110"/>
-      <c r="BS37" s="110"/>
-      <c r="BT37" s="110"/>
-      <c r="BU37" s="110"/>
-      <c r="BV37" s="110"/>
-      <c r="BW37" s="110"/>
-      <c r="BX37" s="110"/>
-      <c r="BY37" s="110"/>
-      <c r="BZ37" s="110"/>
-      <c r="CA37" s="110"/>
-      <c r="CB37" s="110"/>
-      <c r="CC37" s="110"/>
-      <c r="CD37" s="110"/>
-      <c r="CE37" s="110"/>
-      <c r="CF37" s="110"/>
-      <c r="CG37" s="110"/>
-      <c r="CH37" s="110"/>
-      <c r="CI37" s="110"/>
-      <c r="CJ37" s="110"/>
-      <c r="CK37" s="110"/>
-      <c r="CL37" s="110"/>
-      <c r="CM37" s="110"/>
-      <c r="CN37" s="110"/>
-      <c r="CO37" s="110"/>
-      <c r="CP37" s="110"/>
-      <c r="CQ37" s="110"/>
-      <c r="CR37" s="110"/>
-      <c r="CS37" s="110"/>
-      <c r="CT37" s="110"/>
-      <c r="CU37" s="110"/>
-      <c r="CV37" s="110"/>
-      <c r="CW37" s="110"/>
-      <c r="CX37" s="110"/>
-      <c r="CY37" s="110"/>
-      <c r="CZ37" s="110"/>
-      <c r="DA37" s="110"/>
-      <c r="DB37" s="110"/>
-      <c r="DC37" s="110"/>
-      <c r="DD37" s="110"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
+      <c r="L37" s="113"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="113"/>
+      <c r="O37" s="113"/>
+      <c r="P37" s="113"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="116"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="113"/>
+      <c r="U37" s="113"/>
+      <c r="V37" s="113"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="113"/>
+      <c r="Y37" s="130"/>
+      <c r="Z37" s="113"/>
+      <c r="AA37" s="113"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="122"/>
+      <c r="AD37" s="113"/>
+      <c r="AE37" s="113"/>
+      <c r="AF37" s="113"/>
+      <c r="AG37" s="127"/>
+      <c r="AH37" s="127"/>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="127"/>
+      <c r="AK37" s="127"/>
+      <c r="AL37" s="127"/>
+      <c r="AM37" s="127"/>
+      <c r="AN37" s="127"/>
+      <c r="AO37" s="127"/>
+      <c r="AP37" s="127"/>
+      <c r="AQ37" s="127"/>
+      <c r="AR37" s="127"/>
+      <c r="AS37" s="127"/>
+      <c r="AT37" s="127"/>
+      <c r="AU37" s="127"/>
+      <c r="AV37" s="127"/>
+      <c r="AW37" s="127"/>
+      <c r="AX37" s="127"/>
+      <c r="AY37" s="127"/>
+      <c r="AZ37" s="127"/>
+      <c r="BA37" s="127"/>
+      <c r="BB37" s="127"/>
+      <c r="BC37" s="127"/>
+      <c r="BD37" s="127"/>
+      <c r="BE37" s="127"/>
+      <c r="BF37" s="127"/>
+      <c r="BG37" s="127"/>
+      <c r="BH37" s="127"/>
+      <c r="BI37" s="127"/>
+      <c r="BJ37" s="127"/>
+      <c r="BK37" s="127"/>
+      <c r="BL37" s="127"/>
+      <c r="BM37" s="127"/>
+      <c r="BN37" s="127"/>
+      <c r="BO37" s="127"/>
+      <c r="BP37" s="127"/>
+      <c r="BQ37" s="127"/>
+      <c r="BR37" s="127"/>
+      <c r="BS37" s="127"/>
+      <c r="BT37" s="127"/>
+      <c r="BU37" s="127"/>
+      <c r="BV37" s="127"/>
+      <c r="BW37" s="127"/>
+      <c r="BX37" s="127"/>
+      <c r="BY37" s="127"/>
+      <c r="BZ37" s="127"/>
+      <c r="CA37" s="127"/>
+      <c r="CB37" s="127"/>
+      <c r="CC37" s="127"/>
+      <c r="CD37" s="127"/>
+      <c r="CE37" s="127"/>
+      <c r="CF37" s="127"/>
+      <c r="CG37" s="127"/>
+      <c r="CH37" s="127"/>
+      <c r="CI37" s="127"/>
+      <c r="CJ37" s="127"/>
+      <c r="CK37" s="127"/>
+      <c r="CL37" s="127"/>
+      <c r="CM37" s="127"/>
+      <c r="CN37" s="127"/>
+      <c r="CO37" s="127"/>
+      <c r="CP37" s="127"/>
+      <c r="CQ37" s="127"/>
+      <c r="CR37" s="127"/>
+      <c r="CS37" s="127"/>
+      <c r="CT37" s="127"/>
+      <c r="CU37" s="127"/>
+      <c r="CV37" s="127"/>
+      <c r="CW37" s="127"/>
+      <c r="CX37" s="127"/>
+      <c r="CY37" s="127"/>
+      <c r="CZ37" s="127"/>
+      <c r="DA37" s="127"/>
+      <c r="DB37" s="127"/>
+      <c r="DC37" s="127"/>
+      <c r="DD37" s="127"/>
     </row>
     <row r="38" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
@@ -7038,107 +6537,107 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="119"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="119"/>
-      <c r="P38" s="119"/>
-      <c r="Q38" s="119"/>
-      <c r="R38" s="125"/>
-      <c r="S38" s="128"/>
-      <c r="T38" s="119"/>
-      <c r="U38" s="119"/>
-      <c r="V38" s="119"/>
-      <c r="W38" s="125"/>
-      <c r="X38" s="119"/>
-      <c r="Y38" s="122"/>
-      <c r="Z38" s="119"/>
-      <c r="AA38" s="119"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="128"/>
-      <c r="AD38" s="119"/>
-      <c r="AE38" s="119"/>
-      <c r="AF38" s="119"/>
-      <c r="AG38" s="110"/>
-      <c r="AH38" s="110"/>
-      <c r="AI38" s="110"/>
-      <c r="AJ38" s="110"/>
-      <c r="AK38" s="110"/>
-      <c r="AL38" s="110"/>
-      <c r="AM38" s="110"/>
-      <c r="AN38" s="110"/>
-      <c r="AO38" s="110"/>
-      <c r="AP38" s="110"/>
-      <c r="AQ38" s="110"/>
-      <c r="AR38" s="110"/>
-      <c r="AS38" s="110"/>
-      <c r="AT38" s="110"/>
-      <c r="AU38" s="110"/>
-      <c r="AV38" s="110"/>
-      <c r="AW38" s="110"/>
-      <c r="AX38" s="110"/>
-      <c r="AY38" s="110"/>
-      <c r="AZ38" s="110"/>
-      <c r="BA38" s="110"/>
-      <c r="BB38" s="110"/>
-      <c r="BC38" s="110"/>
-      <c r="BD38" s="110"/>
-      <c r="BE38" s="110"/>
-      <c r="BF38" s="110"/>
-      <c r="BG38" s="110"/>
-      <c r="BH38" s="110"/>
-      <c r="BI38" s="110"/>
-      <c r="BJ38" s="110"/>
-      <c r="BK38" s="110"/>
-      <c r="BL38" s="110"/>
-      <c r="BM38" s="110"/>
-      <c r="BN38" s="110"/>
-      <c r="BO38" s="110"/>
-      <c r="BP38" s="110"/>
-      <c r="BQ38" s="110"/>
-      <c r="BR38" s="110"/>
-      <c r="BS38" s="110"/>
-      <c r="BT38" s="110"/>
-      <c r="BU38" s="110"/>
-      <c r="BV38" s="110"/>
-      <c r="BW38" s="110"/>
-      <c r="BX38" s="110"/>
-      <c r="BY38" s="110"/>
-      <c r="BZ38" s="110"/>
-      <c r="CA38" s="110"/>
-      <c r="CB38" s="110"/>
-      <c r="CC38" s="110"/>
-      <c r="CD38" s="110"/>
-      <c r="CE38" s="110"/>
-      <c r="CF38" s="110"/>
-      <c r="CG38" s="110"/>
-      <c r="CH38" s="110"/>
-      <c r="CI38" s="110"/>
-      <c r="CJ38" s="110"/>
-      <c r="CK38" s="110"/>
-      <c r="CL38" s="110"/>
-      <c r="CM38" s="110"/>
-      <c r="CN38" s="110"/>
-      <c r="CO38" s="110"/>
-      <c r="CP38" s="110"/>
-      <c r="CQ38" s="110"/>
-      <c r="CR38" s="110"/>
-      <c r="CS38" s="110"/>
-      <c r="CT38" s="110"/>
-      <c r="CU38" s="110"/>
-      <c r="CV38" s="110"/>
-      <c r="CW38" s="110"/>
-      <c r="CX38" s="110"/>
-      <c r="CY38" s="110"/>
-      <c r="CZ38" s="110"/>
-      <c r="DA38" s="110"/>
-      <c r="DB38" s="110"/>
-      <c r="DC38" s="110"/>
-      <c r="DD38" s="110"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
+      <c r="L38" s="113"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="113"/>
+      <c r="O38" s="113"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="116"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="113"/>
+      <c r="U38" s="113"/>
+      <c r="V38" s="113"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="113"/>
+      <c r="Y38" s="130"/>
+      <c r="Z38" s="113"/>
+      <c r="AA38" s="113"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="122"/>
+      <c r="AD38" s="113"/>
+      <c r="AE38" s="113"/>
+      <c r="AF38" s="113"/>
+      <c r="AG38" s="127"/>
+      <c r="AH38" s="127"/>
+      <c r="AI38" s="127"/>
+      <c r="AJ38" s="127"/>
+      <c r="AK38" s="127"/>
+      <c r="AL38" s="127"/>
+      <c r="AM38" s="127"/>
+      <c r="AN38" s="127"/>
+      <c r="AO38" s="127"/>
+      <c r="AP38" s="127"/>
+      <c r="AQ38" s="127"/>
+      <c r="AR38" s="127"/>
+      <c r="AS38" s="127"/>
+      <c r="AT38" s="127"/>
+      <c r="AU38" s="127"/>
+      <c r="AV38" s="127"/>
+      <c r="AW38" s="127"/>
+      <c r="AX38" s="127"/>
+      <c r="AY38" s="127"/>
+      <c r="AZ38" s="127"/>
+      <c r="BA38" s="127"/>
+      <c r="BB38" s="127"/>
+      <c r="BC38" s="127"/>
+      <c r="BD38" s="127"/>
+      <c r="BE38" s="127"/>
+      <c r="BF38" s="127"/>
+      <c r="BG38" s="127"/>
+      <c r="BH38" s="127"/>
+      <c r="BI38" s="127"/>
+      <c r="BJ38" s="127"/>
+      <c r="BK38" s="127"/>
+      <c r="BL38" s="127"/>
+      <c r="BM38" s="127"/>
+      <c r="BN38" s="127"/>
+      <c r="BO38" s="127"/>
+      <c r="BP38" s="127"/>
+      <c r="BQ38" s="127"/>
+      <c r="BR38" s="127"/>
+      <c r="BS38" s="127"/>
+      <c r="BT38" s="127"/>
+      <c r="BU38" s="127"/>
+      <c r="BV38" s="127"/>
+      <c r="BW38" s="127"/>
+      <c r="BX38" s="127"/>
+      <c r="BY38" s="127"/>
+      <c r="BZ38" s="127"/>
+      <c r="CA38" s="127"/>
+      <c r="CB38" s="127"/>
+      <c r="CC38" s="127"/>
+      <c r="CD38" s="127"/>
+      <c r="CE38" s="127"/>
+      <c r="CF38" s="127"/>
+      <c r="CG38" s="127"/>
+      <c r="CH38" s="127"/>
+      <c r="CI38" s="127"/>
+      <c r="CJ38" s="127"/>
+      <c r="CK38" s="127"/>
+      <c r="CL38" s="127"/>
+      <c r="CM38" s="127"/>
+      <c r="CN38" s="127"/>
+      <c r="CO38" s="127"/>
+      <c r="CP38" s="127"/>
+      <c r="CQ38" s="127"/>
+      <c r="CR38" s="127"/>
+      <c r="CS38" s="127"/>
+      <c r="CT38" s="127"/>
+      <c r="CU38" s="127"/>
+      <c r="CV38" s="127"/>
+      <c r="CW38" s="127"/>
+      <c r="CX38" s="127"/>
+      <c r="CY38" s="127"/>
+      <c r="CZ38" s="127"/>
+      <c r="DA38" s="127"/>
+      <c r="DB38" s="127"/>
+      <c r="DC38" s="127"/>
+      <c r="DD38" s="127"/>
     </row>
     <row r="39" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="7">
@@ -7148,107 +6647,107 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="119"/>
-      <c r="P39" s="119"/>
-      <c r="Q39" s="119"/>
-      <c r="R39" s="125"/>
-      <c r="S39" s="128"/>
-      <c r="T39" s="119"/>
-      <c r="U39" s="119"/>
-      <c r="V39" s="119"/>
-      <c r="W39" s="125"/>
-      <c r="X39" s="119"/>
-      <c r="Y39" s="122"/>
-      <c r="Z39" s="119"/>
-      <c r="AA39" s="119"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="128"/>
-      <c r="AD39" s="119"/>
-      <c r="AE39" s="119"/>
-      <c r="AF39" s="119"/>
-      <c r="AG39" s="110"/>
-      <c r="AH39" s="110"/>
-      <c r="AI39" s="110"/>
-      <c r="AJ39" s="110"/>
-      <c r="AK39" s="110"/>
-      <c r="AL39" s="110"/>
-      <c r="AM39" s="110"/>
-      <c r="AN39" s="110"/>
-      <c r="AO39" s="110"/>
-      <c r="AP39" s="110"/>
-      <c r="AQ39" s="110"/>
-      <c r="AR39" s="110"/>
-      <c r="AS39" s="110"/>
-      <c r="AT39" s="110"/>
-      <c r="AU39" s="110"/>
-      <c r="AV39" s="110"/>
-      <c r="AW39" s="110"/>
-      <c r="AX39" s="110"/>
-      <c r="AY39" s="110"/>
-      <c r="AZ39" s="110"/>
-      <c r="BA39" s="110"/>
-      <c r="BB39" s="110"/>
-      <c r="BC39" s="110"/>
-      <c r="BD39" s="110"/>
-      <c r="BE39" s="110"/>
-      <c r="BF39" s="110"/>
-      <c r="BG39" s="110"/>
-      <c r="BH39" s="110"/>
-      <c r="BI39" s="110"/>
-      <c r="BJ39" s="110"/>
-      <c r="BK39" s="110"/>
-      <c r="BL39" s="110"/>
-      <c r="BM39" s="110"/>
-      <c r="BN39" s="110"/>
-      <c r="BO39" s="110"/>
-      <c r="BP39" s="110"/>
-      <c r="BQ39" s="110"/>
-      <c r="BR39" s="110"/>
-      <c r="BS39" s="110"/>
-      <c r="BT39" s="110"/>
-      <c r="BU39" s="110"/>
-      <c r="BV39" s="110"/>
-      <c r="BW39" s="110"/>
-      <c r="BX39" s="110"/>
-      <c r="BY39" s="110"/>
-      <c r="BZ39" s="110"/>
-      <c r="CA39" s="110"/>
-      <c r="CB39" s="110"/>
-      <c r="CC39" s="110"/>
-      <c r="CD39" s="110"/>
-      <c r="CE39" s="110"/>
-      <c r="CF39" s="110"/>
-      <c r="CG39" s="110"/>
-      <c r="CH39" s="110"/>
-      <c r="CI39" s="110"/>
-      <c r="CJ39" s="110"/>
-      <c r="CK39" s="110"/>
-      <c r="CL39" s="110"/>
-      <c r="CM39" s="110"/>
-      <c r="CN39" s="110"/>
-      <c r="CO39" s="110"/>
-      <c r="CP39" s="110"/>
-      <c r="CQ39" s="110"/>
-      <c r="CR39" s="110"/>
-      <c r="CS39" s="110"/>
-      <c r="CT39" s="110"/>
-      <c r="CU39" s="110"/>
-      <c r="CV39" s="110"/>
-      <c r="CW39" s="110"/>
-      <c r="CX39" s="110"/>
-      <c r="CY39" s="110"/>
-      <c r="CZ39" s="110"/>
-      <c r="DA39" s="110"/>
-      <c r="DB39" s="110"/>
-      <c r="DC39" s="110"/>
-      <c r="DD39" s="110"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
+      <c r="L39" s="113"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="113"/>
+      <c r="O39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="116"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="130"/>
+      <c r="Z39" s="113"/>
+      <c r="AA39" s="113"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="122"/>
+      <c r="AD39" s="113"/>
+      <c r="AE39" s="113"/>
+      <c r="AF39" s="113"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="127"/>
+      <c r="AI39" s="127"/>
+      <c r="AJ39" s="127"/>
+      <c r="AK39" s="127"/>
+      <c r="AL39" s="127"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
+      <c r="AO39" s="127"/>
+      <c r="AP39" s="127"/>
+      <c r="AQ39" s="127"/>
+      <c r="AR39" s="127"/>
+      <c r="AS39" s="127"/>
+      <c r="AT39" s="127"/>
+      <c r="AU39" s="127"/>
+      <c r="AV39" s="127"/>
+      <c r="AW39" s="127"/>
+      <c r="AX39" s="127"/>
+      <c r="AY39" s="127"/>
+      <c r="AZ39" s="127"/>
+      <c r="BA39" s="127"/>
+      <c r="BB39" s="127"/>
+      <c r="BC39" s="127"/>
+      <c r="BD39" s="127"/>
+      <c r="BE39" s="127"/>
+      <c r="BF39" s="127"/>
+      <c r="BG39" s="127"/>
+      <c r="BH39" s="127"/>
+      <c r="BI39" s="127"/>
+      <c r="BJ39" s="127"/>
+      <c r="BK39" s="127"/>
+      <c r="BL39" s="127"/>
+      <c r="BM39" s="127"/>
+      <c r="BN39" s="127"/>
+      <c r="BO39" s="127"/>
+      <c r="BP39" s="127"/>
+      <c r="BQ39" s="127"/>
+      <c r="BR39" s="127"/>
+      <c r="BS39" s="127"/>
+      <c r="BT39" s="127"/>
+      <c r="BU39" s="127"/>
+      <c r="BV39" s="127"/>
+      <c r="BW39" s="127"/>
+      <c r="BX39" s="127"/>
+      <c r="BY39" s="127"/>
+      <c r="BZ39" s="127"/>
+      <c r="CA39" s="127"/>
+      <c r="CB39" s="127"/>
+      <c r="CC39" s="127"/>
+      <c r="CD39" s="127"/>
+      <c r="CE39" s="127"/>
+      <c r="CF39" s="127"/>
+      <c r="CG39" s="127"/>
+      <c r="CH39" s="127"/>
+      <c r="CI39" s="127"/>
+      <c r="CJ39" s="127"/>
+      <c r="CK39" s="127"/>
+      <c r="CL39" s="127"/>
+      <c r="CM39" s="127"/>
+      <c r="CN39" s="127"/>
+      <c r="CO39" s="127"/>
+      <c r="CP39" s="127"/>
+      <c r="CQ39" s="127"/>
+      <c r="CR39" s="127"/>
+      <c r="CS39" s="127"/>
+      <c r="CT39" s="127"/>
+      <c r="CU39" s="127"/>
+      <c r="CV39" s="127"/>
+      <c r="CW39" s="127"/>
+      <c r="CX39" s="127"/>
+      <c r="CY39" s="127"/>
+      <c r="CZ39" s="127"/>
+      <c r="DA39" s="127"/>
+      <c r="DB39" s="127"/>
+      <c r="DC39" s="127"/>
+      <c r="DD39" s="127"/>
     </row>
     <row r="40" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7">
@@ -7258,107 +6757,107 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="125"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="119"/>
-      <c r="P40" s="119"/>
-      <c r="Q40" s="119"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="128"/>
-      <c r="T40" s="119"/>
-      <c r="U40" s="119"/>
-      <c r="V40" s="119"/>
-      <c r="W40" s="125"/>
-      <c r="X40" s="119"/>
-      <c r="Y40" s="122"/>
-      <c r="Z40" s="119"/>
-      <c r="AA40" s="119"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="128"/>
-      <c r="AD40" s="119"/>
-      <c r="AE40" s="119"/>
-      <c r="AF40" s="119"/>
-      <c r="AG40" s="110"/>
-      <c r="AH40" s="110"/>
-      <c r="AI40" s="110"/>
-      <c r="AJ40" s="110"/>
-      <c r="AK40" s="110"/>
-      <c r="AL40" s="110"/>
-      <c r="AM40" s="110"/>
-      <c r="AN40" s="110"/>
-      <c r="AO40" s="110"/>
-      <c r="AP40" s="110"/>
-      <c r="AQ40" s="110"/>
-      <c r="AR40" s="110"/>
-      <c r="AS40" s="110"/>
-      <c r="AT40" s="110"/>
-      <c r="AU40" s="110"/>
-      <c r="AV40" s="110"/>
-      <c r="AW40" s="110"/>
-      <c r="AX40" s="110"/>
-      <c r="AY40" s="110"/>
-      <c r="AZ40" s="110"/>
-      <c r="BA40" s="110"/>
-      <c r="BB40" s="110"/>
-      <c r="BC40" s="110"/>
-      <c r="BD40" s="110"/>
-      <c r="BE40" s="110"/>
-      <c r="BF40" s="110"/>
-      <c r="BG40" s="110"/>
-      <c r="BH40" s="110"/>
-      <c r="BI40" s="110"/>
-      <c r="BJ40" s="110"/>
-      <c r="BK40" s="110"/>
-      <c r="BL40" s="110"/>
-      <c r="BM40" s="110"/>
-      <c r="BN40" s="110"/>
-      <c r="BO40" s="110"/>
-      <c r="BP40" s="110"/>
-      <c r="BQ40" s="110"/>
-      <c r="BR40" s="110"/>
-      <c r="BS40" s="110"/>
-      <c r="BT40" s="110"/>
-      <c r="BU40" s="110"/>
-      <c r="BV40" s="110"/>
-      <c r="BW40" s="110"/>
-      <c r="BX40" s="110"/>
-      <c r="BY40" s="110"/>
-      <c r="BZ40" s="110"/>
-      <c r="CA40" s="110"/>
-      <c r="CB40" s="110"/>
-      <c r="CC40" s="110"/>
-      <c r="CD40" s="110"/>
-      <c r="CE40" s="110"/>
-      <c r="CF40" s="110"/>
-      <c r="CG40" s="110"/>
-      <c r="CH40" s="110"/>
-      <c r="CI40" s="110"/>
-      <c r="CJ40" s="110"/>
-      <c r="CK40" s="110"/>
-      <c r="CL40" s="110"/>
-      <c r="CM40" s="110"/>
-      <c r="CN40" s="110"/>
-      <c r="CO40" s="110"/>
-      <c r="CP40" s="110"/>
-      <c r="CQ40" s="110"/>
-      <c r="CR40" s="110"/>
-      <c r="CS40" s="110"/>
-      <c r="CT40" s="110"/>
-      <c r="CU40" s="110"/>
-      <c r="CV40" s="110"/>
-      <c r="CW40" s="110"/>
-      <c r="CX40" s="110"/>
-      <c r="CY40" s="110"/>
-      <c r="CZ40" s="110"/>
-      <c r="DA40" s="110"/>
-      <c r="DB40" s="110"/>
-      <c r="DC40" s="110"/>
-      <c r="DD40" s="110"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="113"/>
+      <c r="O40" s="113"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="116"/>
+      <c r="S40" s="122"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="130"/>
+      <c r="Z40" s="113"/>
+      <c r="AA40" s="113"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="122"/>
+      <c r="AD40" s="113"/>
+      <c r="AE40" s="113"/>
+      <c r="AF40" s="113"/>
+      <c r="AG40" s="127"/>
+      <c r="AH40" s="127"/>
+      <c r="AI40" s="127"/>
+      <c r="AJ40" s="127"/>
+      <c r="AK40" s="127"/>
+      <c r="AL40" s="127"/>
+      <c r="AM40" s="127"/>
+      <c r="AN40" s="127"/>
+      <c r="AO40" s="127"/>
+      <c r="AP40" s="127"/>
+      <c r="AQ40" s="127"/>
+      <c r="AR40" s="127"/>
+      <c r="AS40" s="127"/>
+      <c r="AT40" s="127"/>
+      <c r="AU40" s="127"/>
+      <c r="AV40" s="127"/>
+      <c r="AW40" s="127"/>
+      <c r="AX40" s="127"/>
+      <c r="AY40" s="127"/>
+      <c r="AZ40" s="127"/>
+      <c r="BA40" s="127"/>
+      <c r="BB40" s="127"/>
+      <c r="BC40" s="127"/>
+      <c r="BD40" s="127"/>
+      <c r="BE40" s="127"/>
+      <c r="BF40" s="127"/>
+      <c r="BG40" s="127"/>
+      <c r="BH40" s="127"/>
+      <c r="BI40" s="127"/>
+      <c r="BJ40" s="127"/>
+      <c r="BK40" s="127"/>
+      <c r="BL40" s="127"/>
+      <c r="BM40" s="127"/>
+      <c r="BN40" s="127"/>
+      <c r="BO40" s="127"/>
+      <c r="BP40" s="127"/>
+      <c r="BQ40" s="127"/>
+      <c r="BR40" s="127"/>
+      <c r="BS40" s="127"/>
+      <c r="BT40" s="127"/>
+      <c r="BU40" s="127"/>
+      <c r="BV40" s="127"/>
+      <c r="BW40" s="127"/>
+      <c r="BX40" s="127"/>
+      <c r="BY40" s="127"/>
+      <c r="BZ40" s="127"/>
+      <c r="CA40" s="127"/>
+      <c r="CB40" s="127"/>
+      <c r="CC40" s="127"/>
+      <c r="CD40" s="127"/>
+      <c r="CE40" s="127"/>
+      <c r="CF40" s="127"/>
+      <c r="CG40" s="127"/>
+      <c r="CH40" s="127"/>
+      <c r="CI40" s="127"/>
+      <c r="CJ40" s="127"/>
+      <c r="CK40" s="127"/>
+      <c r="CL40" s="127"/>
+      <c r="CM40" s="127"/>
+      <c r="CN40" s="127"/>
+      <c r="CO40" s="127"/>
+      <c r="CP40" s="127"/>
+      <c r="CQ40" s="127"/>
+      <c r="CR40" s="127"/>
+      <c r="CS40" s="127"/>
+      <c r="CT40" s="127"/>
+      <c r="CU40" s="127"/>
+      <c r="CV40" s="127"/>
+      <c r="CW40" s="127"/>
+      <c r="CX40" s="127"/>
+      <c r="CY40" s="127"/>
+      <c r="CZ40" s="127"/>
+      <c r="DA40" s="127"/>
+      <c r="DB40" s="127"/>
+      <c r="DC40" s="127"/>
+      <c r="DD40" s="127"/>
     </row>
     <row r="41" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
@@ -7368,107 +6867,107 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="125"/>
-      <c r="N41" s="119"/>
-      <c r="O41" s="119"/>
-      <c r="P41" s="119"/>
-      <c r="Q41" s="119"/>
-      <c r="R41" s="125"/>
-      <c r="S41" s="128"/>
-      <c r="T41" s="119"/>
-      <c r="U41" s="119"/>
-      <c r="V41" s="119"/>
-      <c r="W41" s="125"/>
-      <c r="X41" s="119"/>
-      <c r="Y41" s="122"/>
-      <c r="Z41" s="119"/>
-      <c r="AA41" s="119"/>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="119"/>
-      <c r="AE41" s="119"/>
-      <c r="AF41" s="119"/>
-      <c r="AG41" s="110"/>
-      <c r="AH41" s="110"/>
-      <c r="AI41" s="110"/>
-      <c r="AJ41" s="110"/>
-      <c r="AK41" s="110"/>
-      <c r="AL41" s="110"/>
-      <c r="AM41" s="110"/>
-      <c r="AN41" s="110"/>
-      <c r="AO41" s="110"/>
-      <c r="AP41" s="110"/>
-      <c r="AQ41" s="110"/>
-      <c r="AR41" s="110"/>
-      <c r="AS41" s="110"/>
-      <c r="AT41" s="110"/>
-      <c r="AU41" s="110"/>
-      <c r="AV41" s="110"/>
-      <c r="AW41" s="110"/>
-      <c r="AX41" s="110"/>
-      <c r="AY41" s="110"/>
-      <c r="AZ41" s="110"/>
-      <c r="BA41" s="110"/>
-      <c r="BB41" s="110"/>
-      <c r="BC41" s="110"/>
-      <c r="BD41" s="110"/>
-      <c r="BE41" s="110"/>
-      <c r="BF41" s="110"/>
-      <c r="BG41" s="110"/>
-      <c r="BH41" s="110"/>
-      <c r="BI41" s="110"/>
-      <c r="BJ41" s="110"/>
-      <c r="BK41" s="110"/>
-      <c r="BL41" s="110"/>
-      <c r="BM41" s="110"/>
-      <c r="BN41" s="110"/>
-      <c r="BO41" s="110"/>
-      <c r="BP41" s="110"/>
-      <c r="BQ41" s="110"/>
-      <c r="BR41" s="110"/>
-      <c r="BS41" s="110"/>
-      <c r="BT41" s="110"/>
-      <c r="BU41" s="110"/>
-      <c r="BV41" s="110"/>
-      <c r="BW41" s="110"/>
-      <c r="BX41" s="110"/>
-      <c r="BY41" s="110"/>
-      <c r="BZ41" s="110"/>
-      <c r="CA41" s="110"/>
-      <c r="CB41" s="110"/>
-      <c r="CC41" s="110"/>
-      <c r="CD41" s="110"/>
-      <c r="CE41" s="110"/>
-      <c r="CF41" s="110"/>
-      <c r="CG41" s="110"/>
-      <c r="CH41" s="110"/>
-      <c r="CI41" s="110"/>
-      <c r="CJ41" s="110"/>
-      <c r="CK41" s="110"/>
-      <c r="CL41" s="110"/>
-      <c r="CM41" s="110"/>
-      <c r="CN41" s="110"/>
-      <c r="CO41" s="110"/>
-      <c r="CP41" s="110"/>
-      <c r="CQ41" s="110"/>
-      <c r="CR41" s="110"/>
-      <c r="CS41" s="110"/>
-      <c r="CT41" s="110"/>
-      <c r="CU41" s="110"/>
-      <c r="CV41" s="110"/>
-      <c r="CW41" s="110"/>
-      <c r="CX41" s="110"/>
-      <c r="CY41" s="110"/>
-      <c r="CZ41" s="110"/>
-      <c r="DA41" s="110"/>
-      <c r="DB41" s="110"/>
-      <c r="DC41" s="110"/>
-      <c r="DD41" s="110"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="113"/>
+      <c r="O41" s="113"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="116"/>
+      <c r="S41" s="122"/>
+      <c r="T41" s="113"/>
+      <c r="U41" s="113"/>
+      <c r="V41" s="113"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="113"/>
+      <c r="Y41" s="130"/>
+      <c r="Z41" s="113"/>
+      <c r="AA41" s="113"/>
+      <c r="AB41" s="116"/>
+      <c r="AC41" s="122"/>
+      <c r="AD41" s="113"/>
+      <c r="AE41" s="113"/>
+      <c r="AF41" s="113"/>
+      <c r="AG41" s="127"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="127"/>
+      <c r="AJ41" s="127"/>
+      <c r="AK41" s="127"/>
+      <c r="AL41" s="127"/>
+      <c r="AM41" s="127"/>
+      <c r="AN41" s="127"/>
+      <c r="AO41" s="127"/>
+      <c r="AP41" s="127"/>
+      <c r="AQ41" s="127"/>
+      <c r="AR41" s="127"/>
+      <c r="AS41" s="127"/>
+      <c r="AT41" s="127"/>
+      <c r="AU41" s="127"/>
+      <c r="AV41" s="127"/>
+      <c r="AW41" s="127"/>
+      <c r="AX41" s="127"/>
+      <c r="AY41" s="127"/>
+      <c r="AZ41" s="127"/>
+      <c r="BA41" s="127"/>
+      <c r="BB41" s="127"/>
+      <c r="BC41" s="127"/>
+      <c r="BD41" s="127"/>
+      <c r="BE41" s="127"/>
+      <c r="BF41" s="127"/>
+      <c r="BG41" s="127"/>
+      <c r="BH41" s="127"/>
+      <c r="BI41" s="127"/>
+      <c r="BJ41" s="127"/>
+      <c r="BK41" s="127"/>
+      <c r="BL41" s="127"/>
+      <c r="BM41" s="127"/>
+      <c r="BN41" s="127"/>
+      <c r="BO41" s="127"/>
+      <c r="BP41" s="127"/>
+      <c r="BQ41" s="127"/>
+      <c r="BR41" s="127"/>
+      <c r="BS41" s="127"/>
+      <c r="BT41" s="127"/>
+      <c r="BU41" s="127"/>
+      <c r="BV41" s="127"/>
+      <c r="BW41" s="127"/>
+      <c r="BX41" s="127"/>
+      <c r="BY41" s="127"/>
+      <c r="BZ41" s="127"/>
+      <c r="CA41" s="127"/>
+      <c r="CB41" s="127"/>
+      <c r="CC41" s="127"/>
+      <c r="CD41" s="127"/>
+      <c r="CE41" s="127"/>
+      <c r="CF41" s="127"/>
+      <c r="CG41" s="127"/>
+      <c r="CH41" s="127"/>
+      <c r="CI41" s="127"/>
+      <c r="CJ41" s="127"/>
+      <c r="CK41" s="127"/>
+      <c r="CL41" s="127"/>
+      <c r="CM41" s="127"/>
+      <c r="CN41" s="127"/>
+      <c r="CO41" s="127"/>
+      <c r="CP41" s="127"/>
+      <c r="CQ41" s="127"/>
+      <c r="CR41" s="127"/>
+      <c r="CS41" s="127"/>
+      <c r="CT41" s="127"/>
+      <c r="CU41" s="127"/>
+      <c r="CV41" s="127"/>
+      <c r="CW41" s="127"/>
+      <c r="CX41" s="127"/>
+      <c r="CY41" s="127"/>
+      <c r="CZ41" s="127"/>
+      <c r="DA41" s="127"/>
+      <c r="DB41" s="127"/>
+      <c r="DC41" s="127"/>
+      <c r="DD41" s="127"/>
     </row>
     <row r="42" spans="2:108" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
@@ -7478,107 +6977,107 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="120"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="120"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="120"/>
-      <c r="U42" s="120"/>
-      <c r="V42" s="120"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="120"/>
-      <c r="Y42" s="123"/>
-      <c r="Z42" s="120"/>
-      <c r="AA42" s="120"/>
-      <c r="AB42" s="126"/>
-      <c r="AC42" s="129"/>
-      <c r="AD42" s="120"/>
-      <c r="AE42" s="120"/>
-      <c r="AF42" s="120"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="111"/>
-      <c r="AJ42" s="111"/>
-      <c r="AK42" s="111"/>
-      <c r="AL42" s="111"/>
-      <c r="AM42" s="111"/>
-      <c r="AN42" s="111"/>
-      <c r="AO42" s="111"/>
-      <c r="AP42" s="111"/>
-      <c r="AQ42" s="111"/>
-      <c r="AR42" s="111"/>
-      <c r="AS42" s="111"/>
-      <c r="AT42" s="111"/>
-      <c r="AU42" s="111"/>
-      <c r="AV42" s="111"/>
-      <c r="AW42" s="111"/>
-      <c r="AX42" s="111"/>
-      <c r="AY42" s="111"/>
-      <c r="AZ42" s="111"/>
-      <c r="BA42" s="111"/>
-      <c r="BB42" s="111"/>
-      <c r="BC42" s="111"/>
-      <c r="BD42" s="111"/>
-      <c r="BE42" s="111"/>
-      <c r="BF42" s="111"/>
-      <c r="BG42" s="111"/>
-      <c r="BH42" s="111"/>
-      <c r="BI42" s="111"/>
-      <c r="BJ42" s="111"/>
-      <c r="BK42" s="111"/>
-      <c r="BL42" s="111"/>
-      <c r="BM42" s="111"/>
-      <c r="BN42" s="111"/>
-      <c r="BO42" s="111"/>
-      <c r="BP42" s="111"/>
-      <c r="BQ42" s="111"/>
-      <c r="BR42" s="111"/>
-      <c r="BS42" s="111"/>
-      <c r="BT42" s="111"/>
-      <c r="BU42" s="111"/>
-      <c r="BV42" s="111"/>
-      <c r="BW42" s="111"/>
-      <c r="BX42" s="111"/>
-      <c r="BY42" s="111"/>
-      <c r="BZ42" s="111"/>
-      <c r="CA42" s="111"/>
-      <c r="CB42" s="111"/>
-      <c r="CC42" s="111"/>
-      <c r="CD42" s="111"/>
-      <c r="CE42" s="111"/>
-      <c r="CF42" s="111"/>
-      <c r="CG42" s="111"/>
-      <c r="CH42" s="111"/>
-      <c r="CI42" s="111"/>
-      <c r="CJ42" s="111"/>
-      <c r="CK42" s="111"/>
-      <c r="CL42" s="111"/>
-      <c r="CM42" s="111"/>
-      <c r="CN42" s="111"/>
-      <c r="CO42" s="111"/>
-      <c r="CP42" s="111"/>
-      <c r="CQ42" s="111"/>
-      <c r="CR42" s="111"/>
-      <c r="CS42" s="111"/>
-      <c r="CT42" s="111"/>
-      <c r="CU42" s="111"/>
-      <c r="CV42" s="111"/>
-      <c r="CW42" s="111"/>
-      <c r="CX42" s="111"/>
-      <c r="CY42" s="111"/>
-      <c r="CZ42" s="111"/>
-      <c r="DA42" s="111"/>
-      <c r="DB42" s="111"/>
-      <c r="DC42" s="111"/>
-      <c r="DD42" s="111"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="114"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="117"/>
+      <c r="N42" s="114"/>
+      <c r="O42" s="114"/>
+      <c r="P42" s="114"/>
+      <c r="Q42" s="114"/>
+      <c r="R42" s="117"/>
+      <c r="S42" s="123"/>
+      <c r="T42" s="114"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
+      <c r="W42" s="117"/>
+      <c r="X42" s="114"/>
+      <c r="Y42" s="131"/>
+      <c r="Z42" s="114"/>
+      <c r="AA42" s="114"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="123"/>
+      <c r="AD42" s="114"/>
+      <c r="AE42" s="114"/>
+      <c r="AF42" s="114"/>
+      <c r="AG42" s="128"/>
+      <c r="AH42" s="128"/>
+      <c r="AI42" s="128"/>
+      <c r="AJ42" s="128"/>
+      <c r="AK42" s="128"/>
+      <c r="AL42" s="128"/>
+      <c r="AM42" s="128"/>
+      <c r="AN42" s="128"/>
+      <c r="AO42" s="128"/>
+      <c r="AP42" s="128"/>
+      <c r="AQ42" s="128"/>
+      <c r="AR42" s="128"/>
+      <c r="AS42" s="128"/>
+      <c r="AT42" s="128"/>
+      <c r="AU42" s="128"/>
+      <c r="AV42" s="128"/>
+      <c r="AW42" s="128"/>
+      <c r="AX42" s="128"/>
+      <c r="AY42" s="128"/>
+      <c r="AZ42" s="128"/>
+      <c r="BA42" s="128"/>
+      <c r="BB42" s="128"/>
+      <c r="BC42" s="128"/>
+      <c r="BD42" s="128"/>
+      <c r="BE42" s="128"/>
+      <c r="BF42" s="128"/>
+      <c r="BG42" s="128"/>
+      <c r="BH42" s="128"/>
+      <c r="BI42" s="128"/>
+      <c r="BJ42" s="128"/>
+      <c r="BK42" s="128"/>
+      <c r="BL42" s="128"/>
+      <c r="BM42" s="128"/>
+      <c r="BN42" s="128"/>
+      <c r="BO42" s="128"/>
+      <c r="BP42" s="128"/>
+      <c r="BQ42" s="128"/>
+      <c r="BR42" s="128"/>
+      <c r="BS42" s="128"/>
+      <c r="BT42" s="128"/>
+      <c r="BU42" s="128"/>
+      <c r="BV42" s="128"/>
+      <c r="BW42" s="128"/>
+      <c r="BX42" s="128"/>
+      <c r="BY42" s="128"/>
+      <c r="BZ42" s="128"/>
+      <c r="CA42" s="128"/>
+      <c r="CB42" s="128"/>
+      <c r="CC42" s="128"/>
+      <c r="CD42" s="128"/>
+      <c r="CE42" s="128"/>
+      <c r="CF42" s="128"/>
+      <c r="CG42" s="128"/>
+      <c r="CH42" s="128"/>
+      <c r="CI42" s="128"/>
+      <c r="CJ42" s="128"/>
+      <c r="CK42" s="128"/>
+      <c r="CL42" s="128"/>
+      <c r="CM42" s="128"/>
+      <c r="CN42" s="128"/>
+      <c r="CO42" s="128"/>
+      <c r="CP42" s="128"/>
+      <c r="CQ42" s="128"/>
+      <c r="CR42" s="128"/>
+      <c r="CS42" s="128"/>
+      <c r="CT42" s="128"/>
+      <c r="CU42" s="128"/>
+      <c r="CV42" s="128"/>
+      <c r="CW42" s="128"/>
+      <c r="CX42" s="128"/>
+      <c r="CY42" s="128"/>
+      <c r="CZ42" s="128"/>
+      <c r="DA42" s="128"/>
+      <c r="DB42" s="128"/>
+      <c r="DC42" s="128"/>
+      <c r="DD42" s="128"/>
     </row>
     <row r="43" spans="2:108" ht="25.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="H43" s="36">
@@ -7949,22 +7448,22 @@
       <c r="DD44" s="37"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="117" t="s">
+      <c r="A55" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="117"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
-      <c r="L55" s="117"/>
-      <c r="M55" s="117"/>
-      <c r="N55" s="117"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="124"/>
+      <c r="N55" s="124"/>
     </row>
   </sheetData>
   <autoFilter ref="B10:F10" xr:uid="{9C312F55-2C0F-4E37-BE66-6FD32CCAD304}">
@@ -7973,97 +7472,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="115">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L36:L42"/>
-    <mergeCell ref="M36:M42"/>
-    <mergeCell ref="N36:N42"/>
-    <mergeCell ref="B4:U4"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="R36:R42"/>
-    <mergeCell ref="S36:S42"/>
-    <mergeCell ref="T36:T42"/>
-    <mergeCell ref="U36:U42"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="J36:J42"/>
-    <mergeCell ref="K36:K42"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="V36:V42"/>
-    <mergeCell ref="W36:W42"/>
-    <mergeCell ref="O36:O42"/>
-    <mergeCell ref="P36:P42"/>
-    <mergeCell ref="Q36:Q42"/>
-    <mergeCell ref="AD36:AD42"/>
-    <mergeCell ref="AE36:AE42"/>
-    <mergeCell ref="AF36:AF42"/>
-    <mergeCell ref="AG36:AG42"/>
-    <mergeCell ref="AH36:AH42"/>
-    <mergeCell ref="AI36:AI42"/>
-    <mergeCell ref="X36:X42"/>
-    <mergeCell ref="Y36:Y42"/>
-    <mergeCell ref="Z36:Z42"/>
-    <mergeCell ref="AA36:AA42"/>
-    <mergeCell ref="AB36:AB42"/>
-    <mergeCell ref="AC36:AC42"/>
-    <mergeCell ref="AP36:AP42"/>
-    <mergeCell ref="AQ36:AQ42"/>
-    <mergeCell ref="AR36:AR42"/>
-    <mergeCell ref="AS36:AS42"/>
-    <mergeCell ref="AT36:AT42"/>
-    <mergeCell ref="AU36:AU42"/>
-    <mergeCell ref="AJ36:AJ42"/>
-    <mergeCell ref="AK36:AK42"/>
-    <mergeCell ref="AL36:AL42"/>
-    <mergeCell ref="AM36:AM42"/>
-    <mergeCell ref="AN36:AN42"/>
-    <mergeCell ref="AO36:AO42"/>
-    <mergeCell ref="BB36:BB42"/>
-    <mergeCell ref="BC36:BC42"/>
-    <mergeCell ref="BD36:BD42"/>
-    <mergeCell ref="BE36:BE42"/>
-    <mergeCell ref="BF36:BF42"/>
-    <mergeCell ref="BG36:BG42"/>
-    <mergeCell ref="AV36:AV42"/>
-    <mergeCell ref="AW36:AW42"/>
-    <mergeCell ref="AX36:AX42"/>
-    <mergeCell ref="AY36:AY42"/>
-    <mergeCell ref="AZ36:AZ42"/>
-    <mergeCell ref="BA36:BA42"/>
-    <mergeCell ref="BN36:BN42"/>
-    <mergeCell ref="BO36:BO42"/>
-    <mergeCell ref="BP36:BP42"/>
-    <mergeCell ref="BQ36:BQ42"/>
-    <mergeCell ref="BR36:BR42"/>
-    <mergeCell ref="BS36:BS42"/>
-    <mergeCell ref="BH36:BH42"/>
-    <mergeCell ref="BI36:BI42"/>
-    <mergeCell ref="BJ36:BJ42"/>
-    <mergeCell ref="BK36:BK42"/>
-    <mergeCell ref="BL36:BL42"/>
-    <mergeCell ref="BM36:BM42"/>
-    <mergeCell ref="CJ36:CJ42"/>
-    <mergeCell ref="CK36:CK42"/>
-    <mergeCell ref="BZ36:BZ42"/>
-    <mergeCell ref="CA36:CA42"/>
-    <mergeCell ref="CB36:CB42"/>
-    <mergeCell ref="CC36:CC42"/>
-    <mergeCell ref="CD36:CD42"/>
-    <mergeCell ref="CE36:CE42"/>
-    <mergeCell ref="BT36:BT42"/>
-    <mergeCell ref="BU36:BU42"/>
-    <mergeCell ref="BV36:BV42"/>
-    <mergeCell ref="BW36:BW42"/>
-    <mergeCell ref="BX36:BX42"/>
-    <mergeCell ref="BY36:BY42"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="DD36:DD42"/>
     <mergeCell ref="CX36:CX42"/>
@@ -8088,6 +7496,97 @@
     <mergeCell ref="CG36:CG42"/>
     <mergeCell ref="CH36:CH42"/>
     <mergeCell ref="CI36:CI42"/>
+    <mergeCell ref="CJ36:CJ42"/>
+    <mergeCell ref="CK36:CK42"/>
+    <mergeCell ref="BZ36:BZ42"/>
+    <mergeCell ref="CA36:CA42"/>
+    <mergeCell ref="CB36:CB42"/>
+    <mergeCell ref="CC36:CC42"/>
+    <mergeCell ref="CD36:CD42"/>
+    <mergeCell ref="CE36:CE42"/>
+    <mergeCell ref="BT36:BT42"/>
+    <mergeCell ref="BU36:BU42"/>
+    <mergeCell ref="BV36:BV42"/>
+    <mergeCell ref="BW36:BW42"/>
+    <mergeCell ref="BX36:BX42"/>
+    <mergeCell ref="BY36:BY42"/>
+    <mergeCell ref="BN36:BN42"/>
+    <mergeCell ref="BO36:BO42"/>
+    <mergeCell ref="BP36:BP42"/>
+    <mergeCell ref="BQ36:BQ42"/>
+    <mergeCell ref="BR36:BR42"/>
+    <mergeCell ref="BS36:BS42"/>
+    <mergeCell ref="BH36:BH42"/>
+    <mergeCell ref="BI36:BI42"/>
+    <mergeCell ref="BJ36:BJ42"/>
+    <mergeCell ref="BK36:BK42"/>
+    <mergeCell ref="BL36:BL42"/>
+    <mergeCell ref="BM36:BM42"/>
+    <mergeCell ref="BB36:BB42"/>
+    <mergeCell ref="BC36:BC42"/>
+    <mergeCell ref="BD36:BD42"/>
+    <mergeCell ref="BE36:BE42"/>
+    <mergeCell ref="BF36:BF42"/>
+    <mergeCell ref="BG36:BG42"/>
+    <mergeCell ref="AV36:AV42"/>
+    <mergeCell ref="AW36:AW42"/>
+    <mergeCell ref="AX36:AX42"/>
+    <mergeCell ref="AY36:AY42"/>
+    <mergeCell ref="AZ36:AZ42"/>
+    <mergeCell ref="BA36:BA42"/>
+    <mergeCell ref="AQ36:AQ42"/>
+    <mergeCell ref="AR36:AR42"/>
+    <mergeCell ref="AS36:AS42"/>
+    <mergeCell ref="AT36:AT42"/>
+    <mergeCell ref="AU36:AU42"/>
+    <mergeCell ref="AJ36:AJ42"/>
+    <mergeCell ref="AK36:AK42"/>
+    <mergeCell ref="AL36:AL42"/>
+    <mergeCell ref="AM36:AM42"/>
+    <mergeCell ref="AN36:AN42"/>
+    <mergeCell ref="AO36:AO42"/>
+    <mergeCell ref="AH36:AH42"/>
+    <mergeCell ref="AI36:AI42"/>
+    <mergeCell ref="X36:X42"/>
+    <mergeCell ref="Y36:Y42"/>
+    <mergeCell ref="Z36:Z42"/>
+    <mergeCell ref="AA36:AA42"/>
+    <mergeCell ref="AB36:AB42"/>
+    <mergeCell ref="AC36:AC42"/>
+    <mergeCell ref="AP36:AP42"/>
+    <mergeCell ref="V36:V42"/>
+    <mergeCell ref="W36:W42"/>
+    <mergeCell ref="O36:O42"/>
+    <mergeCell ref="P36:P42"/>
+    <mergeCell ref="Q36:Q42"/>
+    <mergeCell ref="AD36:AD42"/>
+    <mergeCell ref="AE36:AE42"/>
+    <mergeCell ref="AF36:AF42"/>
+    <mergeCell ref="AG36:AG42"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="J36:J42"/>
+    <mergeCell ref="K36:K42"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L36:L42"/>
+    <mergeCell ref="M36:M42"/>
+    <mergeCell ref="N36:N42"/>
+    <mergeCell ref="B4:U4"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="R36:R42"/>
+    <mergeCell ref="S36:S42"/>
+    <mergeCell ref="T36:T42"/>
+    <mergeCell ref="U36:U42"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -8095,11 +7594,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8735E8-159B-493F-8E98-056EDBF63880}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -8117,130 +7616,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
       <c r="S1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="87" t="str">
+      <c r="P2" s="105" t="str">
         <f>Charter!K2</f>
         <v>30/11/2023</v>
       </c>
-      <c r="Q2" s="87"/>
+      <c r="Q2" s="105"/>
       <c r="S2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141"/>
       <c r="O3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="88" t="str">
+      <c r="P3" s="106" t="str">
         <f>Charter!$K$3</f>
         <v>Ahmed Yasser</v>
       </c>
-      <c r="Q3" s="88"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="59" t="str">
         <f>_xlfn.CONCAT(B9," ", C9," White Box Testing")</f>
         <v>development kit Ahmed Yasser White Box Testing</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="142"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
@@ -8264,106 +7763,106 @@
     <row r="7" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
       <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
       <c r="B8" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C8" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="G8" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="H8" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="I8" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="43" t="s">
+      <c r="J8" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="K8" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+      <c r="N8" s="134" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="43" t="s">
         <v>231</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="K8" s="139" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="43" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="40"/>
       <c r="B9" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="K9" s="134" t="s">
-        <v>322</v>
-      </c>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134" t="s">
-        <v>323</v>
-      </c>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
+        <v>232</v>
+      </c>
+      <c r="K9" s="138" t="s">
+        <v>319</v>
+      </c>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
       <c r="Q9" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8377,18 +7876,18 @@
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
-      <c r="K10" s="134" t="s">
-        <v>324</v>
-      </c>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134" t="s">
-        <v>325</v>
-      </c>
-      <c r="O10" s="134"/>
-      <c r="P10" s="134"/>
+      <c r="K10" s="138" t="s">
+        <v>321</v>
+      </c>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
       <c r="Q10" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8404,18 +7903,18 @@
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
-      <c r="K11" s="134" t="s">
-        <v>326</v>
-      </c>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="134" t="s">
-        <v>327</v>
-      </c>
-      <c r="O11" s="134"/>
-      <c r="P11" s="134"/>
+      <c r="K11" s="138" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138" t="s">
+        <v>324</v>
+      </c>
+      <c r="O11" s="138"/>
+      <c r="P11" s="138"/>
       <c r="Q11" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8429,18 +7928,18 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
       <c r="J12" s="39"/>
-      <c r="K12" s="134" t="s">
-        <v>328</v>
-      </c>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134" t="s">
-        <v>329</v>
-      </c>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
+      <c r="K12" s="138" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138" t="s">
+        <v>326</v>
+      </c>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
       <c r="Q12" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8454,18 +7953,18 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39"/>
-      <c r="K13" s="134" t="s">
-        <v>330</v>
-      </c>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134" t="s">
-        <v>331</v>
-      </c>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
+      <c r="K13" s="138" t="s">
+        <v>327</v>
+      </c>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138" t="s">
+        <v>328</v>
+      </c>
+      <c r="O13" s="138"/>
+      <c r="P13" s="138"/>
       <c r="Q13" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8479,18 +7978,18 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
-      <c r="K14" s="134" t="s">
-        <v>332</v>
-      </c>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134" t="s">
-        <v>334</v>
-      </c>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
+      <c r="K14" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138" t="s">
+        <v>331</v>
+      </c>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
       <c r="Q14" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8504,18 +8003,18 @@
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
-      <c r="K15" s="134" t="s">
-        <v>333</v>
-      </c>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134" t="s">
-        <v>335</v>
-      </c>
-      <c r="O15" s="134"/>
-      <c r="P15" s="134"/>
+      <c r="K15" s="138" t="s">
+        <v>330</v>
+      </c>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138" t="s">
+        <v>332</v>
+      </c>
+      <c r="O15" s="138"/>
+      <c r="P15" s="138"/>
       <c r="Q15" s="48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8529,12 +8028,12 @@
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
       <c r="J16" s="39"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
-      <c r="O16" s="134"/>
-      <c r="P16" s="134"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="138"/>
       <c r="Q16" s="48"/>
     </row>
     <row r="17" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8548,12 +8047,12 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="138"/>
       <c r="Q17" s="48"/>
     </row>
     <row r="18" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8567,12 +8066,12 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
       <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8586,12 +8085,12 @@
       <c r="H19" s="39"/>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="134"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="138"/>
       <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8605,12 +8104,12 @@
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="138"/>
       <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8624,12 +8123,12 @@
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="138"/>
       <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8643,12 +8142,12 @@
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
       <c r="Q22" s="48"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8662,12 +8161,12 @@
       <c r="H23" s="39"/>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="138"/>
       <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8681,12 +8180,12 @@
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
       <c r="J24" s="39"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
       <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8700,12 +8199,12 @@
       <c r="H25" s="39"/>
       <c r="I25" s="39"/>
       <c r="J25" s="39"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="138"/>
       <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8719,12 +8218,12 @@
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="138"/>
       <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8738,12 +8237,12 @@
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="138"/>
       <c r="Q27" s="48"/>
     </row>
     <row r="28" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8757,12 +8256,12 @@
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
-      <c r="K28" s="134"/>
-      <c r="L28" s="134"/>
-      <c r="M28" s="134"/>
-      <c r="N28" s="134"/>
-      <c r="O28" s="134"/>
-      <c r="P28" s="134"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="138"/>
       <c r="Q28" s="48"/>
     </row>
     <row r="29" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8776,12 +8275,12 @@
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="134"/>
-      <c r="P29" s="134"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="138"/>
       <c r="Q29" s="48"/>
     </row>
     <row r="30" spans="1:17" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -9104,7 +8603,7 @@
       <c r="M46" s="39"/>
       <c r="N46" s="39"/>
       <c r="O46" s="45" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P46" s="48"/>
       <c r="Q46" s="41"/>
@@ -9125,7 +8624,7 @@
       <c r="M47" s="39"/>
       <c r="N47" s="39"/>
       <c r="O47" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P47" s="49"/>
       <c r="Q47" s="41"/>
@@ -9169,29 +8668,66 @@
       <c r="Q49" s="41"/>
     </row>
     <row r="50" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="61"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="86"/>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
     <mergeCell ref="A50:Q50"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="C7:P7"/>
@@ -9208,43 +8744,6 @@
     <mergeCell ref="N12:P12"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:J9 Q9:Q29 P46" xr:uid="{B26D8A0D-6C0E-4A9F-BDA9-4B9FBFDC4E90}">
@@ -9256,11 +8755,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677A57F1-EAB3-4760-8B9A-9D148079A1A7}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -9273,130 +8772,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
       <c r="S1" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="137"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="141"/>
       <c r="O2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="87" t="str">
+      <c r="P2" s="105" t="str">
         <f>Charter!K2</f>
         <v>30/11/2023</v>
       </c>
-      <c r="Q2" s="87"/>
+      <c r="Q2" s="105"/>
       <c r="S2" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="141"/>
       <c r="O3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="88" t="str">
+      <c r="P3" s="106" t="str">
         <f>Charter!$K$3</f>
         <v>Ahmed Yasser</v>
       </c>
-      <c r="Q3" s="88"/>
+      <c r="Q3" s="106"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="83" t="str">
+      <c r="B4" s="59" t="str">
         <f>_xlfn.CONCAT(Charter!$E$10," Black Testing")</f>
         <v>IOT Black Testing</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
     </row>
     <row r="5" spans="1:19" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="142"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="137"/>
     </row>
     <row r="6" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
@@ -9420,47 +8919,47 @@
     <row r="7" spans="1:19" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40"/>
       <c r="B7" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="138"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="138"/>
-      <c r="H7" s="138"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="138"/>
-      <c r="P7" s="138"/>
+        <v>236</v>
+      </c>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="133"/>
+      <c r="P7" s="133"/>
       <c r="Q7" s="41"/>
     </row>
     <row r="8" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143" t="s">
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="142"/>
+      <c r="P8" s="142"/>
       <c r="Q8" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9468,14 +8967,14 @@
         <v>1</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C9" s="108"/>
       <c r="D9" s="108"/>
       <c r="E9" s="108"/>
       <c r="F9" s="108"/>
       <c r="G9" s="108" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H9" s="108"/>
       <c r="I9" s="108"/>
@@ -9487,7 +8986,7 @@
       <c r="O9" s="108"/>
       <c r="P9" s="108"/>
       <c r="Q9" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9495,14 +8994,14 @@
         <v>2</v>
       </c>
       <c r="B10" s="108" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C10" s="108"/>
       <c r="D10" s="108"/>
       <c r="E10" s="108"/>
       <c r="F10" s="108"/>
       <c r="G10" s="108" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
@@ -9514,7 +9013,7 @@
       <c r="O10" s="108"/>
       <c r="P10" s="108"/>
       <c r="Q10" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9522,14 +9021,14 @@
         <v>3</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
       <c r="G11" s="108" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
@@ -9541,7 +9040,7 @@
       <c r="O11" s="108"/>
       <c r="P11" s="108"/>
       <c r="Q11" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9549,14 +9048,14 @@
         <v>4</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C12" s="108"/>
       <c r="D12" s="108"/>
       <c r="E12" s="108"/>
       <c r="F12" s="108"/>
       <c r="G12" s="108" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="108"/>
@@ -9568,7 +9067,7 @@
       <c r="O12" s="108"/>
       <c r="P12" s="108"/>
       <c r="Q12" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9576,14 +9075,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="108" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C13" s="108"/>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
       <c r="F13" s="108"/>
       <c r="G13" s="108" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
@@ -9595,7 +9094,7 @@
       <c r="O13" s="108"/>
       <c r="P13" s="108"/>
       <c r="Q13" s="47" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9832,47 +9331,47 @@
     <row r="25" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="138"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="138"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="138"/>
-      <c r="L25" s="138"/>
-      <c r="M25" s="138"/>
-      <c r="N25" s="138"/>
-      <c r="O25" s="138"/>
-      <c r="P25" s="138"/>
+        <v>237</v>
+      </c>
+      <c r="C25" s="133"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="133"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="133"/>
+      <c r="O25" s="133"/>
+      <c r="P25" s="133"/>
       <c r="Q25" s="41"/>
     </row>
     <row r="26" spans="1:17" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143" t="s">
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
       <c r="Q26" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10088,47 +9587,47 @@
     <row r="37" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="39" t="s">
-        <v>241</v>
-      </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="138"/>
-      <c r="K37" s="138"/>
-      <c r="L37" s="138"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
+        <v>238</v>
+      </c>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="133"/>
+      <c r="P37" s="133"/>
       <c r="Q37" s="41"/>
     </row>
     <row r="38" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
-      <c r="B38" s="143" t="s">
+      <c r="B38" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143" t="s">
+      <c r="C38" s="142"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="142"/>
+      <c r="M38" s="142"/>
+      <c r="N38" s="142"/>
+      <c r="O38" s="142"/>
+      <c r="P38" s="142"/>
       <c r="Q38" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10218,7 +9717,7 @@
     <row r="43" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C43" s="51"/>
       <c r="D43" s="51"/>
@@ -10238,40 +9737,40 @@
     </row>
     <row r="44" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
-      <c r="B44" s="143" t="s">
+      <c r="B44" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="C44" s="143"/>
-      <c r="D44" s="143"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="143"/>
-      <c r="G44" s="143" t="s">
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="H44" s="143"/>
-      <c r="I44" s="143"/>
-      <c r="J44" s="143"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
-      <c r="O44" s="143"/>
-      <c r="P44" s="143"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="142"/>
       <c r="Q44" s="50" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>1</v>
       </c>
-      <c r="B45" s="85" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
+      <c r="B45" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="108"/>
       <c r="H45" s="108"/>
       <c r="I45" s="108"/>
@@ -10288,13 +9787,13 @@
       <c r="A46" s="40">
         <v>2</v>
       </c>
-      <c r="B46" s="85" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
+      <c r="B46" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="108"/>
       <c r="H46" s="108"/>
       <c r="I46" s="108"/>
@@ -10311,13 +9810,13 @@
       <c r="A47" s="40">
         <v>3</v>
       </c>
-      <c r="B47" s="144" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="146"/>
+      <c r="B47" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="145"/>
       <c r="G47" s="108"/>
       <c r="H47" s="108"/>
       <c r="I47" s="108"/>
@@ -10363,43 +9862,96 @@
       <c r="M49" s="39"/>
       <c r="N49" s="39"/>
       <c r="O49" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P49" s="49"/>
       <c r="Q49" s="47"/>
     </row>
     <row r="50" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-      <c r="M50" s="60"/>
-      <c r="N50" s="60"/>
-      <c r="O50" s="60"/>
-      <c r="P50" s="60"/>
-      <c r="Q50" s="61"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="86"/>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="G42:P42"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:P40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="G41:P41"/>
+    <mergeCell ref="C37:P37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G38:P38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="G39:P39"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:P36"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G34:P34"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:P21"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:P28"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:P23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="C25:P25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:P27"/>
+    <mergeCell ref="G18:P18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:P19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="G11:P11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:P12"/>
+    <mergeCell ref="A50:Q50"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:P44"/>
+    <mergeCell ref="G46:P46"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:P45"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:P47"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:P17"/>
     <mergeCell ref="B18:F18"/>
@@ -10416,67 +9968,14 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A50:Q50"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="G44:P44"/>
-    <mergeCell ref="G46:P46"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="G45:P45"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="G47:P47"/>
-    <mergeCell ref="G11:P11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:P12"/>
-    <mergeCell ref="G18:P18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:P19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:P20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:P21"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:P28"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:P23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:P24"/>
-    <mergeCell ref="C25:P25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:P26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:P27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="G29:P29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:P36"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:P33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G34:P34"/>
-    <mergeCell ref="C37:P37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:P38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="G39:P39"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:P42"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="G40:P40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="G41:P41"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q39:Q42 Q45:Q47 Q9:Q24 Q27:Q36 Q49" xr:uid="{2CA68820-F98E-4BD3-96E4-FE203176743F}">
